--- a/ExampleFolder/InputData/v_example/Country_Concordance_Full.xlsx
+++ b/ExampleFolder/InputData/v_example/Country_Concordance_Full.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Dropbox\Fellowship 1960-2015 PFU database\InputData\v1.1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Github\CL-PFU-JOSS-Paper\ExampleFolder\InputData\v_example\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C178976A-62CD-47F8-A9FE-4FE67E196228}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A9B8724-E335-42F5-9491-0C246AA636F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-1620" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="country_concordance_table" sheetId="1" r:id="rId1"/>
@@ -2765,7 +2765,7 @@
   <dimension ref="A1:H325"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A103" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B106" sqref="B106"/>
     </sheetView>
   </sheetViews>

--- a/ExampleFolder/InputData/v_example/Country_Concordance_Full.xlsx
+++ b/ExampleFolder/InputData/v_example/Country_Concordance_Full.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11008"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Github\CL-PFU-JOSS-Paper\ExampleFolder\InputData\v_example\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mkh2/Dropbox/Fellowship 1960-2015 PFU database/InputData/v1.2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A9B8724-E335-42F5-9491-0C246AA636F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C3E9519-25E5-824E-8CED-02807820E8CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="country_concordance_table" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2179" uniqueCount="771">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2347" uniqueCount="774">
   <si>
     <t>PFU.code</t>
   </si>
@@ -2350,13 +2350,22 @@
   </si>
   <si>
     <t>Kingdom of Eswatini</t>
+  </si>
+  <si>
+    <t>IEA.name.accented</t>
+  </si>
+  <si>
+    <t>Curaçao/Netherlands Antilles</t>
+  </si>
+  <si>
+    <t>Côte d'Ivoire</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2381,6 +2390,19 @@
     </font>
     <font>
       <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -2429,7 +2451,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -2446,6 +2468,8 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2762,82 +2786,85 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H325"/>
+  <dimension ref="A1:I325"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B106" sqref="B106"/>
+      <pane ySplit="1" topLeftCell="A121" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B147" sqref="B147"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="35" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.75" style="2" customWidth="1"/>
-    <col min="3" max="3" width="22.25" style="2" customWidth="1"/>
-    <col min="4" max="4" width="48.25" style="2" customWidth="1"/>
-    <col min="5" max="5" width="21.5" style="2" customWidth="1"/>
-    <col min="6" max="7" width="11.75" style="2" customWidth="1"/>
-    <col min="8" max="16384" width="11" style="2"/>
+    <col min="1" max="2" width="35" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.6640625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="22.1640625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="48.1640625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="21.5" style="2" customWidth="1"/>
+    <col min="7" max="8" width="11.6640625" style="2" customWidth="1"/>
+    <col min="9" max="16384" width="11" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>771</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>452</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C2" s="2" t="s">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="D2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="H2" s="3" t="s">
         <v>676</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="I2" s="3" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B3" s="2" t="s">
-        <v>18</v>
-      </c>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C3" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F3" s="2" t="s">
-        <v>19</v>
+      <c r="E3" s="2" t="s">
+        <v>18</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>19</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>20</v>
       </c>
@@ -2854,38 +2881,41 @@
         <v>20</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G4" s="2" t="s">
         <v>21</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="D5" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="G5" s="3" t="s">
+      <c r="H5" s="3" t="s">
         <v>678</v>
       </c>
-      <c r="H5" s="3" t="s">
+      <c r="I5" s="3" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C6" s="2" t="s">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="D6" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="G6" s="3" t="s">
+      <c r="H6" s="3" t="s">
         <v>677</v>
       </c>
-      <c r="H6" s="3" t="s">
+      <c r="I6" s="3" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>24</v>
       </c>
@@ -2895,93 +2925,99 @@
       <c r="C7" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="D7" s="2" t="s">
         <v>24</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G7" s="2" t="s">
         <v>25</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="B8" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="E8" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="G8" s="4" t="s">
+      <c r="H8" s="4" t="s">
         <v>675</v>
       </c>
-      <c r="H8" s="3" t="s">
+      <c r="I8" s="3" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B9" s="2" t="s">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C9" s="2" t="s">
         <v>309</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="E9" s="2" t="s">
         <v>309</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>438</v>
       </c>
       <c r="G9" s="2" t="s">
         <v>438</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C10" s="2" t="s">
+        <v>438</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="D10" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="G10" s="3" t="s">
+      <c r="H10" s="3" t="s">
         <v>679</v>
       </c>
-      <c r="H10" s="3" t="s">
+      <c r="I10" s="3" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C11" s="2" t="s">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="D11" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="G11" s="3" t="s">
+      <c r="H11" s="3" t="s">
         <v>680</v>
       </c>
-      <c r="H11" s="3" t="s">
+      <c r="I11" s="3" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B12" s="2" t="s">
-        <v>30</v>
-      </c>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C12" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="F12" s="2" t="s">
-        <v>439</v>
+      <c r="D12" s="2" t="s">
+        <v>30</v>
       </c>
       <c r="G12" s="2" t="s">
         <v>439</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+        <v>439</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>31</v>
       </c>
@@ -2998,61 +3034,64 @@
         <v>31</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>449</v>
+        <v>31</v>
       </c>
       <c r="G13" s="2" t="s">
         <v>449</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C14" s="2" t="s">
+        <v>449</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="D14" s="2" t="s">
         <v>32</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>450</v>
       </c>
       <c r="G14" s="2" t="s">
         <v>450</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B15" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C15" s="2" t="s">
         <v>310</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="D15" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="E15" s="2" t="s">
         <v>310</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>453</v>
       </c>
       <c r="G15" s="2" t="s">
         <v>453</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C16" s="2" t="s">
+        <v>453</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="D16" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="G16" s="3" t="s">
+      <c r="H16" s="3" t="s">
         <v>681</v>
       </c>
-      <c r="H16" s="3" t="s">
+      <c r="I16" s="3" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>35</v>
       </c>
@@ -3069,16 +3108,19 @@
         <v>35</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>440</v>
+        <v>35</v>
       </c>
       <c r="G17" s="2" t="s">
         <v>440</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+        <v>440</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>36</v>
       </c>
@@ -3095,61 +3137,64 @@
         <v>36</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>441</v>
+        <v>36</v>
       </c>
       <c r="G18" s="2" t="s">
         <v>441</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B19" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C19" s="2" t="s">
         <v>311</v>
       </c>
-      <c r="D19" s="2" t="s">
+      <c r="E19" s="2" t="s">
         <v>311</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>458</v>
       </c>
       <c r="G19" s="2" t="s">
         <v>458</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C20" s="2" t="s">
+        <v>458</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="D20" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="D20" s="2" t="s">
+      <c r="E20" s="2" t="s">
         <v>357</v>
       </c>
-      <c r="G20" s="3" t="s">
+      <c r="H20" s="3" t="s">
         <v>682</v>
       </c>
-      <c r="H20" s="3" t="s">
+      <c r="I20" s="3" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C21" s="2" t="s">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="D21" s="2" t="s">
         <v>38</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>459</v>
       </c>
       <c r="G21" s="2" t="s">
         <v>459</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+        <v>459</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
         <v>39</v>
       </c>
@@ -3166,16 +3211,19 @@
         <v>39</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>442</v>
+        <v>39</v>
       </c>
       <c r="G22" s="2" t="s">
         <v>442</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+        <v>442</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>40</v>
       </c>
@@ -3192,16 +3240,19 @@
         <v>40</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>460</v>
+        <v>40</v>
       </c>
       <c r="G23" s="2" t="s">
         <v>460</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+        <v>460</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>41</v>
       </c>
@@ -3218,47 +3269,50 @@
         <v>41</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>443</v>
+        <v>41</v>
       </c>
       <c r="G24" s="2" t="s">
         <v>443</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C25" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="D25" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="G25" s="3" t="s">
+      <c r="H25" s="3" t="s">
         <v>683</v>
       </c>
-      <c r="H25" s="3" t="s">
+      <c r="I25" s="3" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B26" s="2" t="s">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C26" s="2" t="s">
         <v>386</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>43</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="F26" s="2" t="s">
-        <v>461</v>
+      <c r="E26" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="G26" s="2" t="s">
         <v>461</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+        <v>461</v>
+      </c>
+      <c r="I26" s="2" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
         <v>44</v>
       </c>
@@ -3275,27 +3329,30 @@
         <v>44</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>462</v>
+        <v>44</v>
       </c>
       <c r="G27" s="2" t="s">
         <v>462</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C28" s="2" t="s">
+        <v>462</v>
+      </c>
+      <c r="I27" s="2" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="D28" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="G28" s="3" t="s">
+      <c r="H28" s="3" t="s">
         <v>684</v>
       </c>
-      <c r="H28" s="3" t="s">
+      <c r="I28" s="3" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
         <v>46</v>
       </c>
@@ -3312,47 +3369,50 @@
         <v>46</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>463</v>
+        <v>46</v>
       </c>
       <c r="G29" s="2" t="s">
         <v>463</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B30" s="2" t="s">
-        <v>47</v>
-      </c>
+        <v>463</v>
+      </c>
+      <c r="I29" s="2" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C30" s="2" t="s">
         <v>47</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="F30" s="2" t="s">
-        <v>451</v>
+      <c r="E30" s="2" t="s">
+        <v>47</v>
       </c>
       <c r="G30" s="2" t="s">
         <v>451</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C31" s="2" t="s">
+        <v>451</v>
+      </c>
+      <c r="I30" s="2" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="D31" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="G31" s="3" t="s">
+      <c r="H31" s="3" t="s">
         <v>685</v>
       </c>
-      <c r="H31" s="3" t="s">
+      <c r="I31" s="3" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
         <v>49</v>
       </c>
@@ -3369,16 +3429,19 @@
         <v>49</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>454</v>
+        <v>49</v>
       </c>
       <c r="G32" s="2" t="s">
         <v>454</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+        <v>454</v>
+      </c>
+      <c r="I32" s="2" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
         <v>50</v>
       </c>
@@ -3395,47 +3458,50 @@
         <v>50</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>444</v>
+        <v>50</v>
       </c>
       <c r="G33" s="2" t="s">
         <v>444</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D34" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="I33" s="2" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E34" s="2" t="s">
         <v>312</v>
       </c>
-      <c r="G34" s="3" t="s">
+      <c r="H34" s="3" t="s">
         <v>686</v>
       </c>
-      <c r="H34" s="3" t="s">
+      <c r="I34" s="3" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B35" s="2" t="s">
-        <v>51</v>
-      </c>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C35" s="2" t="s">
         <v>51</v>
       </c>
       <c r="D35" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="F35" s="2" t="s">
-        <v>455</v>
+      <c r="E35" s="2" t="s">
+        <v>51</v>
       </c>
       <c r="G35" s="2" t="s">
         <v>455</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+        <v>455</v>
+      </c>
+      <c r="I35" s="2" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
         <v>52</v>
       </c>
@@ -3452,104 +3518,110 @@
         <v>52</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>445</v>
+        <v>52</v>
       </c>
       <c r="G36" s="2" t="s">
         <v>445</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B37" s="2" t="s">
-        <v>53</v>
-      </c>
+        <v>445</v>
+      </c>
+      <c r="I36" s="2" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C37" s="2" t="s">
         <v>53</v>
       </c>
       <c r="D37" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="F37" s="2" t="s">
-        <v>465</v>
+      <c r="E37" s="2" t="s">
+        <v>53</v>
       </c>
       <c r="G37" s="2" t="s">
         <v>465</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B38" s="2" t="s">
-        <v>54</v>
-      </c>
+        <v>465</v>
+      </c>
+      <c r="I37" s="2" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C38" s="2" t="s">
         <v>54</v>
       </c>
       <c r="D38" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="F38" s="2" t="s">
-        <v>466</v>
+      <c r="E38" s="2" t="s">
+        <v>54</v>
       </c>
       <c r="G38" s="2" t="s">
         <v>466</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C39" s="2" t="s">
+        <v>466</v>
+      </c>
+      <c r="I38" s="2" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="D39" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="G39" s="3" t="s">
+      <c r="H39" s="3" t="s">
         <v>687</v>
       </c>
-      <c r="H39" s="3" t="s">
+      <c r="I39" s="3" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
         <v>424</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>56</v>
+        <v>424</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>56</v>
       </c>
       <c r="D40" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E40" s="2" t="s">
         <v>313</v>
       </c>
-      <c r="E40" s="2" t="s">
+      <c r="F40" s="2" t="s">
         <v>56</v>
-      </c>
-      <c r="F40" s="2" t="s">
-        <v>446</v>
       </c>
       <c r="G40" s="2" t="s">
         <v>446</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C41" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="I40" s="2" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="D41" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="G41" s="3" t="s">
+      <c r="H41" s="3" t="s">
         <v>688</v>
       </c>
-      <c r="H41" s="3" t="s">
+      <c r="I41" s="3" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
         <v>314</v>
       </c>
@@ -3557,25 +3629,28 @@
         <v>314</v>
       </c>
       <c r="C42" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="D42" s="2" t="s">
         <v>58</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>314</v>
       </c>
       <c r="E42" s="2" t="s">
         <v>314</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>467</v>
+        <v>314</v>
       </c>
       <c r="G42" s="2" t="s">
         <v>467</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+        <v>467</v>
+      </c>
+      <c r="I42" s="2" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
         <v>59</v>
       </c>
@@ -3592,16 +3667,19 @@
         <v>59</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>468</v>
+        <v>59</v>
       </c>
       <c r="G43" s="2" t="s">
         <v>468</v>
       </c>
       <c r="H43" s="2" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+        <v>468</v>
+      </c>
+      <c r="I43" s="2" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
         <v>60</v>
       </c>
@@ -3618,33 +3696,36 @@
         <v>60</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>447</v>
+        <v>60</v>
       </c>
       <c r="G44" s="2" t="s">
         <v>447</v>
       </c>
       <c r="H44" s="2" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B45" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="I44" s="2" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C45" s="2" t="s">
         <v>315</v>
       </c>
-      <c r="D45" s="2" t="s">
+      <c r="E45" s="2" t="s">
         <v>315</v>
-      </c>
-      <c r="F45" s="2" t="s">
-        <v>469</v>
       </c>
       <c r="G45" s="2" t="s">
         <v>469</v>
       </c>
       <c r="H45" s="2" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+        <v>469</v>
+      </c>
+      <c r="I45" s="2" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
         <v>316</v>
       </c>
@@ -3652,25 +3733,28 @@
         <v>316</v>
       </c>
       <c r="C46" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="D46" s="2" t="s">
         <v>61</v>
-      </c>
-      <c r="D46" s="2" t="s">
-        <v>316</v>
       </c>
       <c r="E46" s="2" t="s">
         <v>316</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>456</v>
+        <v>316</v>
       </c>
       <c r="G46" s="2" t="s">
         <v>456</v>
       </c>
       <c r="H46" s="2" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+        <v>456</v>
+      </c>
+      <c r="I46" s="2" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
         <v>62</v>
       </c>
@@ -3687,59 +3771,65 @@
         <v>62</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>470</v>
+        <v>62</v>
       </c>
       <c r="G47" s="2" t="s">
         <v>470</v>
       </c>
       <c r="H47" s="2" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
+        <v>470</v>
+      </c>
+      <c r="I47" s="2" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A48" s="5" t="s">
         <v>668</v>
       </c>
       <c r="B48" s="5" t="s">
+        <v>668</v>
+      </c>
+      <c r="C48" s="5" t="s">
         <v>317</v>
       </c>
-      <c r="C48" s="5" t="s">
+      <c r="D48" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="D48" s="5" t="s">
+      <c r="E48" s="5" t="s">
         <v>317</v>
-      </c>
-      <c r="F48" s="5" t="s">
-        <v>471</v>
       </c>
       <c r="G48" s="5" t="s">
         <v>471</v>
       </c>
       <c r="H48" s="5" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B49" s="2" t="s">
-        <v>64</v>
-      </c>
+        <v>471</v>
+      </c>
+      <c r="I48" s="5" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C49" s="2" t="s">
         <v>64</v>
       </c>
       <c r="D49" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="F49" s="2" t="s">
-        <v>464</v>
+      <c r="E49" s="2" t="s">
+        <v>64</v>
       </c>
       <c r="G49" s="2" t="s">
         <v>464</v>
       </c>
       <c r="H49" s="2" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+        <v>464</v>
+      </c>
+      <c r="I49" s="2" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
         <v>65</v>
       </c>
@@ -3756,16 +3846,19 @@
         <v>65</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>472</v>
+        <v>65</v>
       </c>
       <c r="G50" s="2" t="s">
         <v>472</v>
       </c>
       <c r="H50" s="2" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+        <v>472</v>
+      </c>
+      <c r="I50" s="2" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
         <v>66</v>
       </c>
@@ -3782,27 +3875,30 @@
         <v>66</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>457</v>
+        <v>66</v>
       </c>
       <c r="G51" s="2" t="s">
         <v>457</v>
       </c>
       <c r="H51" s="2" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C52" s="2" t="s">
+        <v>457</v>
+      </c>
+      <c r="I51" s="2" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="D52" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="G52" s="3" t="s">
+      <c r="H52" s="3" t="s">
         <v>689</v>
       </c>
-      <c r="H52" s="3" t="s">
+      <c r="I52" s="3" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
         <v>68</v>
       </c>
@@ -3819,89 +3915,92 @@
         <v>68</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>448</v>
+        <v>68</v>
       </c>
       <c r="G53" s="2" t="s">
         <v>448</v>
       </c>
       <c r="H53" s="2" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C54" s="2" t="s">
+        <v>448</v>
+      </c>
+      <c r="I53" s="2" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="D54" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="G54" s="3" t="s">
+      <c r="H54" s="3" t="s">
         <v>690</v>
       </c>
-      <c r="H54" s="3" t="s">
+      <c r="I54" s="3" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B55" s="2" t="s">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C55" s="2" t="s">
         <v>318</v>
       </c>
-      <c r="C55" s="2" t="s">
+      <c r="D55" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="D55" s="2" t="s">
+      <c r="E55" s="2" t="s">
         <v>318</v>
-      </c>
-      <c r="F55" s="2" t="s">
-        <v>473</v>
       </c>
       <c r="G55" s="2" t="s">
         <v>473</v>
       </c>
       <c r="H55" s="2" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B56" s="2" t="s">
+        <v>473</v>
+      </c>
+      <c r="I55" s="2" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C56" s="2" t="s">
         <v>319</v>
       </c>
-      <c r="D56" s="2" t="s">
+      <c r="E56" s="2" t="s">
         <v>319</v>
-      </c>
-      <c r="F56" s="2" t="s">
-        <v>487</v>
       </c>
       <c r="G56" s="2" t="s">
         <v>487</v>
       </c>
       <c r="H56" s="2" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B57" s="2" t="s">
+        <v>487</v>
+      </c>
+      <c r="I56" s="2" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C57" s="2" t="s">
         <v>320</v>
       </c>
-      <c r="C57" s="2" t="s">
+      <c r="D57" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="D57" s="2" t="s">
+      <c r="E57" s="2" t="s">
         <v>320</v>
-      </c>
-      <c r="F57" s="2" t="s">
-        <v>474</v>
       </c>
       <c r="G57" s="2" t="s">
         <v>474</v>
       </c>
       <c r="H57" s="2" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
+        <v>474</v>
+      </c>
+      <c r="I57" s="2" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A58" s="5" t="s">
         <v>667</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>72</v>
+        <v>667</v>
       </c>
       <c r="C58" s="5" t="s">
         <v>72</v>
@@ -3909,39 +4008,42 @@
       <c r="D58" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="F58" s="5" t="s">
-        <v>475</v>
+      <c r="E58" s="5" t="s">
+        <v>72</v>
       </c>
       <c r="G58" s="5" t="s">
         <v>475</v>
       </c>
       <c r="H58" s="5" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C59" s="2" t="s">
+        <v>475</v>
+      </c>
+      <c r="I58" s="5" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="D59" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="G59" s="3" t="s">
+      <c r="H59" s="3" t="s">
         <v>691</v>
       </c>
-      <c r="H59" s="3" t="s">
+      <c r="I59" s="3" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B60" s="2" t="s">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C60" s="2" t="s">
         <v>387</v>
       </c>
-      <c r="G60" s="3" t="s">
+      <c r="H60" s="3" t="s">
         <v>692</v>
       </c>
-      <c r="H60" s="3" t="s">
+      <c r="I60" s="3" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A61" s="2" t="s">
         <v>74</v>
       </c>
@@ -3958,19 +4060,19 @@
         <v>74</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>477</v>
+        <v>74</v>
       </c>
       <c r="G61" s="2" t="s">
         <v>477</v>
       </c>
       <c r="H61" s="2" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B62" s="2" t="s">
-        <v>75</v>
-      </c>
+        <v>477</v>
+      </c>
+      <c r="I61" s="2" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C62" s="2" t="s">
         <v>75</v>
       </c>
@@ -3981,83 +4083,92 @@
         <v>75</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>476</v>
+        <v>75</v>
       </c>
       <c r="G62" s="2" t="s">
         <v>476</v>
       </c>
       <c r="H62" s="2" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+        <v>476</v>
+      </c>
+      <c r="I62" s="2" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A63" s="2" t="s">
         <v>425</v>
       </c>
-      <c r="D63" s="2" t="s">
+      <c r="B63" s="2" t="s">
+        <v>425</v>
+      </c>
+      <c r="E63" s="2" t="s">
         <v>323</v>
       </c>
-      <c r="G63" s="3" t="s">
+      <c r="H63" s="3" t="s">
         <v>693</v>
       </c>
-      <c r="H63" s="3" t="s">
+      <c r="I63" s="3" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A64" s="2" t="s">
         <v>431</v>
       </c>
-      <c r="D64" s="2" t="s">
+      <c r="B64" s="2" t="s">
+        <v>431</v>
+      </c>
+      <c r="E64" s="2" t="s">
         <v>324</v>
       </c>
-      <c r="E64" s="2" t="s">
+      <c r="F64" s="2" t="s">
         <v>435</v>
-      </c>
-      <c r="F64" s="2" t="s">
-        <v>478</v>
       </c>
       <c r="G64" s="2" t="s">
         <v>478</v>
       </c>
       <c r="H64" s="2" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C65" s="2" t="s">
+        <v>478</v>
+      </c>
+      <c r="I64" s="2" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="D65" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="G65" s="3" t="s">
+      <c r="H65" s="3" t="s">
         <v>694</v>
       </c>
-      <c r="H65" s="3" t="s">
+      <c r="I65" s="3" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C66" s="2" t="s">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="D66" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="G66" s="3" t="s">
+      <c r="H66" s="3" t="s">
         <v>695</v>
       </c>
-      <c r="H66" s="3" t="s">
+      <c r="I66" s="3" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C67" s="2" t="s">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="D67" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="G67" s="3" t="s">
+      <c r="H67" s="3" t="s">
         <v>696</v>
       </c>
-      <c r="H67" s="3" t="s">
+      <c r="I67" s="3" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A68" s="2" t="s">
         <v>79</v>
       </c>
@@ -4074,79 +4185,85 @@
         <v>79</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>479</v>
+        <v>79</v>
       </c>
       <c r="G68" s="2" t="s">
         <v>479</v>
       </c>
       <c r="H68" s="2" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B69" s="2" t="s">
-        <v>80</v>
-      </c>
+        <v>479</v>
+      </c>
+      <c r="I68" s="2" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C69" s="2" t="s">
         <v>80</v>
       </c>
       <c r="D69" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="F69" s="2" t="s">
-        <v>480</v>
+      <c r="E69" s="2" t="s">
+        <v>80</v>
       </c>
       <c r="G69" s="2" t="s">
         <v>480</v>
       </c>
       <c r="H69" s="2" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+        <v>480</v>
+      </c>
+      <c r="I69" s="2" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A70" s="2" t="s">
         <v>426</v>
       </c>
       <c r="B70" s="2" t="s">
+        <v>426</v>
+      </c>
+      <c r="C70" s="2" t="s">
         <v>390</v>
-      </c>
-      <c r="C70" s="2" t="s">
-        <v>81</v>
       </c>
       <c r="D70" s="2" t="s">
         <v>81</v>
       </c>
       <c r="E70" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="F70" s="2" t="s">
         <v>390</v>
-      </c>
-      <c r="F70" s="2" t="s">
-        <v>481</v>
       </c>
       <c r="G70" s="2" t="s">
         <v>481</v>
       </c>
       <c r="H70" s="2" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C71" s="2" t="s">
+        <v>481</v>
+      </c>
+      <c r="I70" s="2" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="D71" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="D71" s="2" t="s">
+      <c r="E71" s="2" t="s">
         <v>325</v>
-      </c>
-      <c r="F71" s="2" t="s">
-        <v>482</v>
       </c>
       <c r="G71" s="2" t="s">
         <v>482</v>
       </c>
       <c r="H71" s="2" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+        <v>482</v>
+      </c>
+      <c r="I71" s="2" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A72" s="2" t="s">
         <v>326</v>
       </c>
@@ -4154,25 +4271,28 @@
         <v>326</v>
       </c>
       <c r="C72" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="D72" s="2" t="s">
         <v>83</v>
-      </c>
-      <c r="D72" s="2" t="s">
-        <v>326</v>
       </c>
       <c r="E72" s="2" t="s">
         <v>326</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>483</v>
+        <v>326</v>
       </c>
       <c r="G72" s="2" t="s">
         <v>483</v>
       </c>
       <c r="H72" s="2" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+        <v>483</v>
+      </c>
+      <c r="I72" s="2" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A73" s="2" t="s">
         <v>84</v>
       </c>
@@ -4189,27 +4309,30 @@
         <v>84</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>484</v>
+        <v>84</v>
       </c>
       <c r="G73" s="2" t="s">
         <v>484</v>
       </c>
       <c r="H73" s="2" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C74" s="2" t="s">
+        <v>484</v>
+      </c>
+      <c r="I73" s="2" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="D74" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="G74" s="3" t="s">
+      <c r="H74" s="3" t="s">
         <v>697</v>
       </c>
-      <c r="H74" s="3" t="s">
+      <c r="I74" s="3" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A75" s="2" t="s">
         <v>86</v>
       </c>
@@ -4226,39 +4349,45 @@
         <v>86</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>485</v>
+        <v>86</v>
       </c>
       <c r="G75" s="2" t="s">
         <v>485</v>
       </c>
       <c r="H75" s="2" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+        <v>485</v>
+      </c>
+      <c r="I75" s="2" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A76" s="2" t="s">
         <v>674</v>
       </c>
-      <c r="B76" s="2" t="s">
+      <c r="B76" s="6" t="s">
+        <v>772</v>
+      </c>
+      <c r="C76" s="2" t="s">
         <v>391</v>
       </c>
-      <c r="C76" s="2" t="s">
+      <c r="D76" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="D76" s="2" t="s">
+      <c r="E76" s="2" t="s">
         <v>344</v>
-      </c>
-      <c r="F76" s="2" t="s">
-        <v>486</v>
       </c>
       <c r="G76" s="2" t="s">
         <v>486</v>
       </c>
       <c r="H76" s="2" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+        <v>486</v>
+      </c>
+      <c r="I76" s="2" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A77" s="2" t="s">
         <v>88</v>
       </c>
@@ -4275,16 +4404,19 @@
         <v>88</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>488</v>
+        <v>88</v>
       </c>
       <c r="G77" s="2" t="s">
         <v>488</v>
       </c>
       <c r="H77" s="2" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+        <v>488</v>
+      </c>
+      <c r="I77" s="2" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A78" s="2" t="s">
         <v>392</v>
       </c>
@@ -4292,36 +4424,39 @@
         <v>392</v>
       </c>
       <c r="C78" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="D78" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="D78" s="2" t="s">
+      <c r="E78" s="2" t="s">
         <v>327</v>
       </c>
-      <c r="E78" s="2" t="s">
+      <c r="F78" s="2" t="s">
         <v>392</v>
-      </c>
-      <c r="F78" s="2" t="s">
-        <v>489</v>
       </c>
       <c r="G78" s="2" t="s">
         <v>489</v>
       </c>
       <c r="H78" s="2" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D79" s="2" t="s">
+        <v>489</v>
+      </c>
+      <c r="I78" s="2" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E79" s="2" t="s">
         <v>328</v>
       </c>
-      <c r="G79" s="3" t="s">
+      <c r="H79" s="3" t="s">
         <v>698</v>
       </c>
-      <c r="H79" s="3" t="s">
+      <c r="I79" s="3" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A80" s="2" t="s">
         <v>90</v>
       </c>
@@ -4338,56 +4473,59 @@
         <v>90</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>490</v>
+        <v>90</v>
       </c>
       <c r="G80" s="2" t="s">
         <v>490</v>
       </c>
       <c r="H80" s="2" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B81" s="2" t="s">
-        <v>91</v>
-      </c>
+        <v>490</v>
+      </c>
+      <c r="I80" s="2" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C81" s="2" t="s">
         <v>91</v>
       </c>
       <c r="D81" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="F81" s="2" t="s">
-        <v>491</v>
+      <c r="E81" s="2" t="s">
+        <v>91</v>
       </c>
       <c r="G81" s="2" t="s">
         <v>491</v>
       </c>
       <c r="H81" s="2" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B82" s="2" t="s">
-        <v>92</v>
-      </c>
+        <v>491</v>
+      </c>
+      <c r="I81" s="2" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C82" s="2" t="s">
         <v>92</v>
       </c>
       <c r="D82" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="F82" s="2" t="s">
-        <v>492</v>
+      <c r="E82" s="2" t="s">
+        <v>92</v>
       </c>
       <c r="G82" s="2" t="s">
         <v>492</v>
       </c>
       <c r="H82" s="2" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+        <v>492</v>
+      </c>
+      <c r="I82" s="2" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A83" s="2" t="s">
         <v>331</v>
       </c>
@@ -4395,90 +4533,96 @@
         <v>331</v>
       </c>
       <c r="C83" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="D83" s="2" t="s">
         <v>93</v>
-      </c>
-      <c r="D83" s="2" t="s">
-        <v>331</v>
       </c>
       <c r="E83" s="2" t="s">
         <v>331</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>493</v>
+        <v>331</v>
       </c>
       <c r="G83" s="2" t="s">
         <v>493</v>
       </c>
       <c r="H83" s="2" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+        <v>493</v>
+      </c>
+      <c r="I83" s="2" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A84" s="2" t="s">
         <v>330</v>
       </c>
       <c r="B84" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="C84" s="2" t="s">
         <v>389</v>
       </c>
-      <c r="C84" s="2" t="s">
+      <c r="D84" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="D84" s="2" t="s">
+      <c r="E84" s="2" t="s">
         <v>330</v>
       </c>
-      <c r="E84" s="2" t="s">
+      <c r="F84" s="2" t="s">
         <v>389</v>
-      </c>
-      <c r="F84" s="2" t="s">
-        <v>494</v>
       </c>
       <c r="G84" s="2" t="s">
         <v>494</v>
       </c>
       <c r="H84" s="2" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C85" s="2" t="s">
+        <v>494</v>
+      </c>
+      <c r="I84" s="2" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="D85" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="G85" s="3" t="s">
+      <c r="H85" s="3" t="s">
         <v>699</v>
       </c>
-      <c r="H85" s="3" t="s">
+      <c r="I85" s="3" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B86" s="2" t="s">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C86" s="2" t="s">
         <v>416</v>
       </c>
-      <c r="C86" s="2" t="s">
+      <c r="D86" s="2" t="s">
         <v>96</v>
-      </c>
-      <c r="F86" s="2" t="s">
-        <v>495</v>
       </c>
       <c r="G86" s="2" t="s">
         <v>495</v>
       </c>
       <c r="H86" s="2" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C87" s="2" t="s">
+        <v>495</v>
+      </c>
+      <c r="I86" s="2" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="D87" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="G87" s="3" t="s">
+      <c r="H87" s="3" t="s">
         <v>700</v>
       </c>
-      <c r="H87" s="3" t="s">
+      <c r="I87" s="3" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A88" s="2" t="s">
         <v>98</v>
       </c>
@@ -4495,42 +4639,48 @@
         <v>98</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>496</v>
+        <v>98</v>
       </c>
       <c r="G88" s="2" t="s">
         <v>496</v>
       </c>
       <c r="H88" s="2" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+        <v>496</v>
+      </c>
+      <c r="I88" s="2" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A89" s="2" t="s">
         <v>99</v>
       </c>
       <c r="B89" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C89" s="2" t="s">
         <v>393</v>
-      </c>
-      <c r="C89" s="2" t="s">
-        <v>99</v>
       </c>
       <c r="D89" s="2" t="s">
         <v>99</v>
       </c>
       <c r="E89" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="F89" s="2" t="s">
         <v>393</v>
-      </c>
-      <c r="F89" s="2" t="s">
-        <v>497</v>
       </c>
       <c r="G89" s="2" t="s">
         <v>497</v>
       </c>
       <c r="H89" s="2" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+        <v>497</v>
+      </c>
+      <c r="I89" s="2" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A90" s="2" t="s">
         <v>332</v>
       </c>
@@ -4538,25 +4688,28 @@
         <v>332</v>
       </c>
       <c r="C90" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="D90" s="2" t="s">
         <v>100</v>
-      </c>
-      <c r="D90" s="2" t="s">
-        <v>332</v>
       </c>
       <c r="E90" s="2" t="s">
         <v>332</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>498</v>
+        <v>332</v>
       </c>
       <c r="G90" s="2" t="s">
         <v>498</v>
       </c>
       <c r="H90" s="2" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+        <v>498</v>
+      </c>
+      <c r="I90" s="2" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A91" s="2" t="s">
         <v>333</v>
       </c>
@@ -4564,25 +4717,28 @@
         <v>333</v>
       </c>
       <c r="C91" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="D91" s="2" t="s">
         <v>101</v>
-      </c>
-      <c r="D91" s="2" t="s">
-        <v>333</v>
       </c>
       <c r="E91" s="2" t="s">
         <v>333</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>499</v>
+        <v>333</v>
       </c>
       <c r="G91" s="2" t="s">
         <v>499</v>
       </c>
       <c r="H91" s="2" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+        <v>499</v>
+      </c>
+      <c r="I91" s="2" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A92" s="2" t="s">
         <v>102</v>
       </c>
@@ -4599,16 +4755,19 @@
         <v>102</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>500</v>
+        <v>102</v>
       </c>
       <c r="G92" s="2" t="s">
         <v>500</v>
       </c>
       <c r="H92" s="2" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+        <v>500</v>
+      </c>
+      <c r="I92" s="2" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A93" s="2" t="s">
         <v>103</v>
       </c>
@@ -4625,16 +4784,19 @@
         <v>103</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>501</v>
+        <v>103</v>
       </c>
       <c r="G93" s="2" t="s">
         <v>501</v>
       </c>
       <c r="H93" s="2" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+        <v>501</v>
+      </c>
+      <c r="I93" s="2" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A94" s="2" t="s">
         <v>104</v>
       </c>
@@ -4651,95 +4813,98 @@
         <v>104</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>502</v>
+        <v>104</v>
       </c>
       <c r="G94" s="2" t="s">
         <v>502</v>
       </c>
       <c r="H94" s="2" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D95" s="2" t="s">
+        <v>502</v>
+      </c>
+      <c r="I94" s="2" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E95" s="2" t="s">
         <v>335</v>
       </c>
-      <c r="G95" s="3" t="s">
+      <c r="H95" s="3" t="s">
         <v>701</v>
       </c>
-      <c r="H95" s="3" t="s">
+      <c r="I95" s="3" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B96" s="2" t="s">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C96" s="2" t="s">
         <v>336</v>
       </c>
-      <c r="C96" s="2" t="s">
+      <c r="D96" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="D96" s="2" t="s">
+      <c r="E96" s="2" t="s">
         <v>336</v>
-      </c>
-      <c r="F96" s="2" t="s">
-        <v>503</v>
       </c>
       <c r="G96" s="2" t="s">
         <v>503</v>
       </c>
       <c r="H96" s="2" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C97" s="2" t="s">
+        <v>503</v>
+      </c>
+      <c r="I96" s="2" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="D97" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="D97" s="2" t="s">
+      <c r="E97" s="2" t="s">
         <v>337</v>
-      </c>
-      <c r="F97" s="2" t="s">
-        <v>504</v>
       </c>
       <c r="G97" s="2" t="s">
         <v>504</v>
       </c>
       <c r="H97" s="2" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C98" s="2" t="s">
+        <v>504</v>
+      </c>
+      <c r="I97" s="2" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="D98" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="G98" s="3" t="s">
+      <c r="H98" s="3" t="s">
         <v>702</v>
       </c>
-      <c r="H98" s="3" t="s">
+      <c r="I98" s="3" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B99" s="2" t="s">
-        <v>108</v>
-      </c>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C99" s="2" t="s">
         <v>108</v>
       </c>
       <c r="D99" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="F99" s="2" t="s">
-        <v>505</v>
+      <c r="E99" s="2" t="s">
+        <v>108</v>
       </c>
       <c r="G99" s="2" t="s">
         <v>505</v>
       </c>
       <c r="H99" s="2" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+        <v>505</v>
+      </c>
+      <c r="I99" s="2" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A100" s="2" t="s">
         <v>109</v>
       </c>
@@ -4756,16 +4921,19 @@
         <v>109</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>506</v>
+        <v>109</v>
       </c>
       <c r="G100" s="2" t="s">
         <v>506</v>
       </c>
       <c r="H100" s="2" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+        <v>506</v>
+      </c>
+      <c r="I100" s="2" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A101" s="2" t="s">
         <v>110</v>
       </c>
@@ -4782,61 +4950,64 @@
         <v>110</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>507</v>
+        <v>110</v>
       </c>
       <c r="G101" s="2" t="s">
         <v>507</v>
       </c>
       <c r="H101" s="2" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C102" s="2" t="s">
+        <v>507</v>
+      </c>
+      <c r="I101" s="2" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="D102" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="G102" s="3" t="s">
+      <c r="H102" s="3" t="s">
         <v>703</v>
       </c>
-      <c r="H102" s="3" t="s">
+      <c r="I102" s="3" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C103" s="2" t="s">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="D103" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="D103" s="2" t="s">
+      <c r="E103" s="2" t="s">
         <v>338</v>
-      </c>
-      <c r="F103" s="2" t="s">
-        <v>508</v>
       </c>
       <c r="G103" s="2" t="s">
         <v>508</v>
       </c>
       <c r="H103" s="2" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B104" s="2" t="s">
+        <v>508</v>
+      </c>
+      <c r="I103" s="2" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C104" s="2" t="s">
         <v>339</v>
       </c>
-      <c r="D104" s="2" t="s">
+      <c r="E104" s="2" t="s">
         <v>339</v>
-      </c>
-      <c r="F104" s="2" t="s">
-        <v>509</v>
       </c>
       <c r="G104" s="2" t="s">
         <v>509</v>
       </c>
       <c r="H104" s="2" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
+        <v>509</v>
+      </c>
+      <c r="I104" s="2" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A105" s="2" t="s">
         <v>113</v>
       </c>
@@ -4853,47 +5024,50 @@
         <v>113</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>510</v>
+        <v>113</v>
       </c>
       <c r="G105" s="2" t="s">
         <v>510</v>
       </c>
       <c r="H105" s="2" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C106" s="2" t="s">
+        <v>510</v>
+      </c>
+      <c r="I105" s="2" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="D106" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="G106" s="3" t="s">
+      <c r="H106" s="3" t="s">
         <v>704</v>
       </c>
-      <c r="H106" s="3" t="s">
+      <c r="I106" s="3" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B107" s="2" t="s">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C107" s="2" t="s">
         <v>396</v>
-      </c>
-      <c r="C107" s="2" t="s">
-        <v>115</v>
       </c>
       <c r="D107" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="F107" s="2" t="s">
-        <v>511</v>
+      <c r="E107" s="2" t="s">
+        <v>115</v>
       </c>
       <c r="G107" s="2" t="s">
         <v>511</v>
       </c>
       <c r="H107" s="2" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
+        <v>511</v>
+      </c>
+      <c r="I107" s="2" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A108" s="2" t="s">
         <v>116</v>
       </c>
@@ -4910,16 +5084,19 @@
         <v>116</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>512</v>
+        <v>116</v>
       </c>
       <c r="G108" s="2" t="s">
         <v>512</v>
       </c>
       <c r="H108" s="2" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
+        <v>512</v>
+      </c>
+      <c r="I108" s="2" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A109" s="2" t="s">
         <v>117</v>
       </c>
@@ -4936,16 +5113,19 @@
         <v>117</v>
       </c>
       <c r="F109" s="2" t="s">
-        <v>513</v>
+        <v>117</v>
       </c>
       <c r="G109" s="2" t="s">
         <v>513</v>
       </c>
       <c r="H109" s="2" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
+        <v>513</v>
+      </c>
+      <c r="I109" s="2" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A110" s="2" t="s">
         <v>118</v>
       </c>
@@ -4962,16 +5142,19 @@
         <v>118</v>
       </c>
       <c r="F110" s="2" t="s">
-        <v>514</v>
+        <v>118</v>
       </c>
       <c r="G110" s="2" t="s">
         <v>514</v>
       </c>
       <c r="H110" s="2" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
+        <v>514</v>
+      </c>
+      <c r="I110" s="2" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A111" s="2" t="s">
         <v>119</v>
       </c>
@@ -4981,39 +5164,42 @@
       <c r="C111" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="F111" s="2" t="s">
-        <v>515</v>
+      <c r="D111" s="2" t="s">
+        <v>119</v>
       </c>
       <c r="G111" s="2" t="s">
         <v>515</v>
       </c>
       <c r="H111" s="2" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C112" s="2" t="s">
+        <v>515</v>
+      </c>
+      <c r="I111" s="2" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="D112" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="G112" s="3" t="s">
+      <c r="H112" s="3" t="s">
         <v>705</v>
       </c>
-      <c r="H112" s="3" t="s">
+      <c r="I112" s="3" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C113" s="2" t="s">
+    <row r="113" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="D113" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="G113" s="3" t="s">
+      <c r="H113" s="3" t="s">
         <v>706</v>
       </c>
-      <c r="H113" s="3" t="s">
+      <c r="I113" s="3" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A114" s="2" t="s">
         <v>122</v>
       </c>
@@ -5030,21 +5216,24 @@
         <v>122</v>
       </c>
       <c r="F114" s="2" t="s">
-        <v>516</v>
+        <v>122</v>
       </c>
       <c r="G114" s="2" t="s">
         <v>516</v>
       </c>
       <c r="H114" s="2" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="115" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
+        <v>516</v>
+      </c>
+      <c r="I114" s="2" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A115" s="5" t="s">
         <v>662</v>
       </c>
       <c r="B115" s="5" t="s">
-        <v>123</v>
+        <v>662</v>
       </c>
       <c r="C115" s="5" t="s">
         <v>123</v>
@@ -5056,81 +5245,84 @@
         <v>123</v>
       </c>
       <c r="F115" s="5" t="s">
-        <v>517</v>
+        <v>123</v>
       </c>
       <c r="G115" s="5" t="s">
         <v>517</v>
       </c>
       <c r="H115" s="5" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B116" s="2" t="s">
-        <v>124</v>
-      </c>
+        <v>517</v>
+      </c>
+      <c r="I115" s="5" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C116" s="2" t="s">
         <v>124</v>
       </c>
       <c r="D116" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="F116" s="2" t="s">
-        <v>518</v>
+      <c r="E116" s="2" t="s">
+        <v>124</v>
       </c>
       <c r="G116" s="2" t="s">
         <v>518</v>
       </c>
       <c r="H116" s="2" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C117" s="2" t="s">
+        <v>518</v>
+      </c>
+      <c r="I116" s="2" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="D117" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="G117" s="3" t="s">
+      <c r="H117" s="3" t="s">
         <v>707</v>
       </c>
-      <c r="H117" s="3" t="s">
+      <c r="I117" s="3" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C118" s="2" t="s">
-        <v>126</v>
-      </c>
+    <row r="118" spans="1:9" x14ac:dyDescent="0.2">
       <c r="D118" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="F118" s="2" t="s">
-        <v>519</v>
+      <c r="E118" s="2" t="s">
+        <v>126</v>
       </c>
       <c r="G118" s="2" t="s">
         <v>519</v>
       </c>
       <c r="H118" s="2" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B119" s="2" t="s">
+        <v>519</v>
+      </c>
+      <c r="I118" s="2" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C119" s="2" t="s">
         <v>340</v>
       </c>
-      <c r="D119" s="2" t="s">
+      <c r="E119" s="2" t="s">
         <v>340</v>
-      </c>
-      <c r="F119" s="2" t="s">
-        <v>520</v>
       </c>
       <c r="G119" s="2" t="s">
         <v>520</v>
       </c>
       <c r="H119" s="2" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
+        <v>520</v>
+      </c>
+      <c r="I119" s="2" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A120" s="2" t="s">
         <v>127</v>
       </c>
@@ -5147,56 +5339,62 @@
         <v>127</v>
       </c>
       <c r="F120" s="2" t="s">
-        <v>521</v>
+        <v>127</v>
       </c>
       <c r="G120" s="2" t="s">
         <v>521</v>
       </c>
       <c r="H120" s="2" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B121" s="2" t="s">
-        <v>128</v>
-      </c>
+        <v>521</v>
+      </c>
+      <c r="I120" s="2" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C121" s="2" t="s">
         <v>128</v>
       </c>
       <c r="D121" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="F121" s="2" t="s">
-        <v>522</v>
+      <c r="E121" s="2" t="s">
+        <v>128</v>
       </c>
       <c r="G121" s="2" t="s">
         <v>522</v>
       </c>
       <c r="H121" s="2" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B122" s="2" t="s">
-        <v>129</v>
-      </c>
+        <v>522</v>
+      </c>
+      <c r="I121" s="2" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C122" s="2" t="s">
         <v>129</v>
       </c>
       <c r="D122" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="F122" s="2" t="s">
-        <v>523</v>
+      <c r="E122" s="2" t="s">
+        <v>129</v>
       </c>
       <c r="G122" s="2" t="s">
         <v>523</v>
       </c>
       <c r="H122" s="2" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
+        <v>523</v>
+      </c>
+      <c r="I122" s="2" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A123" s="2" t="s">
+        <v>130</v>
+      </c>
       <c r="B123" s="2" t="s">
         <v>130</v>
       </c>
@@ -5206,17 +5404,20 @@
       <c r="D123" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="F123" s="2" t="s">
-        <v>524</v>
+      <c r="E123" s="2" t="s">
+        <v>130</v>
       </c>
       <c r="G123" s="2" t="s">
         <v>524</v>
       </c>
       <c r="H123" s="2" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
+        <v>524</v>
+      </c>
+      <c r="I123" s="2" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A124" s="2" t="s">
         <v>131</v>
       </c>
@@ -5233,49 +5434,52 @@
         <v>131</v>
       </c>
       <c r="F124" s="2" t="s">
-        <v>525</v>
+        <v>131</v>
       </c>
       <c r="G124" s="2" t="s">
         <v>525</v>
       </c>
       <c r="H124" s="2" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C125" s="2" t="s">
+        <v>525</v>
+      </c>
+      <c r="I124" s="2" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="D125" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="G125" s="3" t="s">
+      <c r="H125" s="3" t="s">
         <v>708</v>
       </c>
-      <c r="H125" s="3" t="s">
+      <c r="I125" s="3" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C126" s="2" t="s">
+    <row r="126" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="D126" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="G126" s="3" t="s">
+      <c r="H126" s="3" t="s">
         <v>709</v>
       </c>
-      <c r="H126" s="3" t="s">
+      <c r="I126" s="3" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C127" s="2" t="s">
+    <row r="127" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="D127" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="G127" s="3" t="s">
+      <c r="H127" s="3" t="s">
         <v>710</v>
       </c>
-      <c r="H127" s="3" t="s">
+      <c r="I127" s="3" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A128" s="2" t="s">
         <v>135</v>
       </c>
@@ -5292,42 +5496,48 @@
         <v>135</v>
       </c>
       <c r="F128" s="2" t="s">
-        <v>526</v>
+        <v>135</v>
       </c>
       <c r="G128" s="2" t="s">
         <v>526</v>
       </c>
       <c r="H128" s="2" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
+        <v>526</v>
+      </c>
+      <c r="I128" s="2" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A129" s="2" t="s">
         <v>427</v>
       </c>
       <c r="B129" s="2" t="s">
+        <v>427</v>
+      </c>
+      <c r="C129" s="2" t="s">
         <v>397</v>
       </c>
-      <c r="C129" s="2" t="s">
+      <c r="D129" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="D129" s="2" t="s">
+      <c r="E129" s="2" t="s">
         <v>321</v>
       </c>
-      <c r="E129" s="2" t="s">
+      <c r="F129" s="2" t="s">
         <v>397</v>
-      </c>
-      <c r="F129" s="2" t="s">
-        <v>527</v>
       </c>
       <c r="G129" s="2" t="s">
         <v>527</v>
       </c>
       <c r="H129" s="2" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
+        <v>527</v>
+      </c>
+      <c r="I129" s="2" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A130" s="2" t="s">
         <v>137</v>
       </c>
@@ -5344,16 +5554,19 @@
         <v>137</v>
       </c>
       <c r="F130" s="2" t="s">
-        <v>528</v>
+        <v>137</v>
       </c>
       <c r="G130" s="2" t="s">
         <v>528</v>
       </c>
       <c r="H130" s="2" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
+        <v>528</v>
+      </c>
+      <c r="I130" s="2" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A131" s="2" t="s">
         <v>138</v>
       </c>
@@ -5370,16 +5583,19 @@
         <v>138</v>
       </c>
       <c r="F131" s="2" t="s">
-        <v>529</v>
+        <v>138</v>
       </c>
       <c r="G131" s="2" t="s">
         <v>529</v>
       </c>
       <c r="H131" s="2" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
+        <v>529</v>
+      </c>
+      <c r="I131" s="2" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A132" s="2" t="s">
         <v>139</v>
       </c>
@@ -5396,16 +5612,19 @@
         <v>139</v>
       </c>
       <c r="F132" s="2" t="s">
-        <v>530</v>
+        <v>139</v>
       </c>
       <c r="G132" s="2" t="s">
         <v>530</v>
       </c>
       <c r="H132" s="2" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
+        <v>530</v>
+      </c>
+      <c r="I132" s="2" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A133" s="2" t="s">
         <v>140</v>
       </c>
@@ -5422,42 +5641,48 @@
         <v>140</v>
       </c>
       <c r="F133" s="2" t="s">
-        <v>531</v>
+        <v>140</v>
       </c>
       <c r="G133" s="2" t="s">
         <v>531</v>
       </c>
       <c r="H133" s="2" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
+        <v>531</v>
+      </c>
+      <c r="I133" s="2" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A134" s="2" t="s">
         <v>428</v>
       </c>
       <c r="B134" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="C134" s="2" t="s">
         <v>399</v>
       </c>
-      <c r="C134" s="2" t="s">
+      <c r="D134" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="D134" s="2" t="s">
+      <c r="E134" s="2" t="s">
         <v>341</v>
       </c>
-      <c r="E134" s="2" t="s">
+      <c r="F134" s="2" t="s">
         <v>399</v>
-      </c>
-      <c r="F134" s="2" t="s">
-        <v>532</v>
       </c>
       <c r="G134" s="2" t="s">
         <v>532</v>
       </c>
       <c r="H134" s="2" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
+        <v>532</v>
+      </c>
+      <c r="I134" s="2" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A135" s="2" t="s">
         <v>142</v>
       </c>
@@ -5474,16 +5699,19 @@
         <v>142</v>
       </c>
       <c r="F135" s="2" t="s">
-        <v>533</v>
+        <v>142</v>
       </c>
       <c r="G135" s="2" t="s">
         <v>533</v>
       </c>
       <c r="H135" s="2" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
+        <v>533</v>
+      </c>
+      <c r="I135" s="2" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A136" s="2" t="s">
         <v>143</v>
       </c>
@@ -5500,104 +5728,107 @@
         <v>143</v>
       </c>
       <c r="F136" s="2" t="s">
-        <v>534</v>
+        <v>143</v>
       </c>
       <c r="G136" s="2" t="s">
         <v>534</v>
       </c>
       <c r="H136" s="2" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C137" s="2" t="s">
+        <v>534</v>
+      </c>
+      <c r="I136" s="2" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="D137" s="2" t="s">
         <v>398</v>
       </c>
-      <c r="G137" s="3" t="s">
+      <c r="H137" s="3" t="s">
         <v>711</v>
       </c>
-      <c r="H137" s="3" t="s">
+      <c r="I137" s="3" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C138" s="2" t="s">
+    <row r="138" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="D138" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="G138" s="3" t="s">
+      <c r="H138" s="3" t="s">
         <v>712</v>
       </c>
-      <c r="H138" s="3" t="s">
+      <c r="I138" s="3" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C139" s="2" t="s">
+    <row r="139" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="D139" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="G139" s="3" t="s">
+      <c r="H139" s="3" t="s">
         <v>713</v>
       </c>
-      <c r="H139" s="3" t="s">
+      <c r="I139" s="3" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C140" s="2" t="s">
+    <row r="140" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="D140" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="G140" s="3" t="s">
+      <c r="H140" s="3" t="s">
         <v>714</v>
       </c>
-      <c r="H140" s="3" t="s">
+      <c r="I140" s="3" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C141" s="2" t="s">
+    <row r="141" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="D141" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="G141" s="3" t="s">
+      <c r="H141" s="3" t="s">
         <v>715</v>
       </c>
-      <c r="H141" s="3" t="s">
+      <c r="I141" s="3" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C142" s="2" t="s">
+    <row r="142" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="D142" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="G142" s="3" t="s">
+      <c r="H142" s="3" t="s">
         <v>716</v>
       </c>
-      <c r="H142" s="3" t="s">
+      <c r="I142" s="3" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C143" s="2" t="s">
+    <row r="143" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="D143" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="G143" s="3" t="s">
+      <c r="H143" s="3" t="s">
         <v>717</v>
       </c>
-      <c r="H143" s="3" t="s">
+      <c r="I143" s="3" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C144" s="2" t="s">
+    <row r="144" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="D144" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="G144" s="3" t="s">
+      <c r="H144" s="3" t="s">
         <v>718</v>
       </c>
-      <c r="H144" s="3" t="s">
+      <c r="I144" s="3" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A145" s="2" t="s">
         <v>151</v>
       </c>
@@ -5614,16 +5845,19 @@
         <v>151</v>
       </c>
       <c r="F145" s="2" t="s">
-        <v>535</v>
+        <v>151</v>
       </c>
       <c r="G145" s="2" t="s">
         <v>535</v>
       </c>
       <c r="H145" s="2" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
+        <v>535</v>
+      </c>
+      <c r="I145" s="2" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A146" s="2" t="s">
         <v>152</v>
       </c>
@@ -5640,42 +5874,48 @@
         <v>152</v>
       </c>
       <c r="F146" s="2" t="s">
-        <v>536</v>
+        <v>152</v>
       </c>
       <c r="G146" s="2" t="s">
         <v>536</v>
       </c>
       <c r="H146" s="2" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
+        <v>536</v>
+      </c>
+      <c r="I146" s="2" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A147" s="2" t="s">
         <v>388</v>
       </c>
-      <c r="B147" s="2" t="s">
+      <c r="B147" s="7" t="s">
+        <v>773</v>
+      </c>
+      <c r="C147" s="2" t="s">
         <v>388</v>
       </c>
-      <c r="C147" s="2" t="s">
+      <c r="D147" s="2" t="s">
         <v>153</v>
-      </c>
-      <c r="D147" s="2" t="s">
-        <v>388</v>
       </c>
       <c r="E147" s="2" t="s">
         <v>388</v>
       </c>
       <c r="F147" s="2" t="s">
-        <v>537</v>
+        <v>388</v>
       </c>
       <c r="G147" s="2" t="s">
         <v>537</v>
       </c>
       <c r="H147" s="2" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
+        <v>537</v>
+      </c>
+      <c r="I147" s="2" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A148" s="2" t="s">
         <v>154</v>
       </c>
@@ -5692,27 +5932,30 @@
         <v>154</v>
       </c>
       <c r="F148" s="2" t="s">
-        <v>538</v>
+        <v>154</v>
       </c>
       <c r="G148" s="2" t="s">
         <v>538</v>
       </c>
       <c r="H148" s="2" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C149" s="2" t="s">
+        <v>538</v>
+      </c>
+      <c r="I148" s="2" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="D149" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="G149" s="3" t="s">
+      <c r="H149" s="3" t="s">
         <v>719</v>
       </c>
-      <c r="H149" s="3" t="s">
+      <c r="I149" s="3" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A150" s="2" t="s">
         <v>156</v>
       </c>
@@ -5729,16 +5972,19 @@
         <v>156</v>
       </c>
       <c r="F150" s="2" t="s">
-        <v>539</v>
+        <v>156</v>
       </c>
       <c r="G150" s="2" t="s">
         <v>539</v>
       </c>
       <c r="H150" s="2" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
+        <v>539</v>
+      </c>
+      <c r="I150" s="2" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A151" s="2" t="s">
         <v>157</v>
       </c>
@@ -5755,38 +6001,41 @@
         <v>157</v>
       </c>
       <c r="F151" s="2" t="s">
-        <v>540</v>
+        <v>157</v>
       </c>
       <c r="G151" s="2" t="s">
         <v>540</v>
       </c>
       <c r="H151" s="2" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C152" s="2" t="s">
+        <v>540</v>
+      </c>
+      <c r="I151" s="2" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="D152" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="G152" s="3" t="s">
+      <c r="H152" s="3" t="s">
         <v>720</v>
       </c>
-      <c r="H152" s="3" t="s">
+      <c r="I152" s="3" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C153" s="2" t="s">
+    <row r="153" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="D153" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="G153" s="3" t="s">
+      <c r="H153" s="3" t="s">
         <v>721</v>
       </c>
-      <c r="H153" s="3" t="s">
+      <c r="I153" s="3" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A154" s="2" t="s">
         <v>160</v>
       </c>
@@ -5803,16 +6052,19 @@
         <v>160</v>
       </c>
       <c r="F154" s="2" t="s">
-        <v>541</v>
+        <v>160</v>
       </c>
       <c r="G154" s="2" t="s">
         <v>541</v>
       </c>
       <c r="H154" s="2" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
+        <v>541</v>
+      </c>
+      <c r="I154" s="2" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A155" s="2" t="s">
         <v>161</v>
       </c>
@@ -5829,58 +6081,61 @@
         <v>161</v>
       </c>
       <c r="F155" s="2" t="s">
-        <v>542</v>
+        <v>161</v>
       </c>
       <c r="G155" s="2" t="s">
         <v>542</v>
       </c>
       <c r="H155" s="2" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C156" s="2" t="s">
+        <v>542</v>
+      </c>
+      <c r="I155" s="2" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="D156" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="G156" s="3" t="s">
+      <c r="H156" s="3" t="s">
         <v>722</v>
       </c>
-      <c r="H156" s="3" t="s">
+      <c r="I156" s="3" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B157" s="2" t="s">
-        <v>163</v>
-      </c>
+    <row r="157" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C157" s="2" t="s">
         <v>163</v>
       </c>
       <c r="D157" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="F157" s="2" t="s">
-        <v>543</v>
+      <c r="E157" s="2" t="s">
+        <v>163</v>
       </c>
       <c r="G157" s="2" t="s">
         <v>543</v>
       </c>
       <c r="H157" s="2" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C158" s="2" t="s">
+        <v>543</v>
+      </c>
+      <c r="I157" s="2" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="D158" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="G158" s="2" t="s">
+      <c r="H158" s="2" t="s">
         <v>723</v>
       </c>
-      <c r="H158" s="2" t="s">
+      <c r="I158" s="2" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A159" s="2" t="s">
         <v>8</v>
       </c>
@@ -5890,31 +6145,34 @@
       <c r="C159" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E159" s="2" t="s">
+      <c r="D159" s="2" t="s">
         <v>8</v>
       </c>
       <c r="F159" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G159" s="2" t="s">
         <v>7</v>
       </c>
       <c r="H159" s="2" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C160" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I159" s="2" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="D160" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="G160" s="3" t="s">
+      <c r="H160" s="3" t="s">
         <v>724</v>
       </c>
-      <c r="H160" s="3" t="s">
+      <c r="I160" s="3" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="161" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A161" s="2" t="s">
         <v>166</v>
       </c>
@@ -5931,90 +6189,99 @@
         <v>166</v>
       </c>
       <c r="F161" s="2" t="s">
-        <v>544</v>
+        <v>166</v>
       </c>
       <c r="G161" s="2" t="s">
         <v>544</v>
       </c>
       <c r="H161" s="2" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="162" spans="1:8" x14ac:dyDescent="0.25">
+        <v>544</v>
+      </c>
+      <c r="I161" s="2" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A162" s="2" t="s">
         <v>167</v>
       </c>
       <c r="B162" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="C162" s="2" t="s">
         <v>400</v>
-      </c>
-      <c r="C162" s="2" t="s">
-        <v>167</v>
       </c>
       <c r="D162" s="2" t="s">
         <v>167</v>
       </c>
       <c r="E162" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="F162" s="2" t="s">
         <v>400</v>
-      </c>
-      <c r="F162" s="2" t="s">
-        <v>545</v>
       </c>
       <c r="G162" s="2" t="s">
         <v>545</v>
       </c>
       <c r="H162" s="2" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="163" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C163" s="2" t="s">
+        <v>545</v>
+      </c>
+      <c r="I162" s="2" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="D163" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="G163" s="3" t="s">
+      <c r="H163" s="3" t="s">
         <v>725</v>
       </c>
-      <c r="H163" s="3" t="s">
+      <c r="I163" s="3" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="164" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C164" s="2" t="s">
+    <row r="164" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="D164" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="G164" s="3" t="s">
+      <c r="H164" s="3" t="s">
         <v>726</v>
       </c>
-      <c r="H164" s="3" t="s">
+      <c r="I164" s="3" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="165" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A165" s="2" t="s">
         <v>342</v>
       </c>
       <c r="B165" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="C165" s="2" t="s">
         <v>403</v>
       </c>
-      <c r="C165" s="2" t="s">
+      <c r="D165" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="D165" s="2" t="s">
+      <c r="E165" s="2" t="s">
         <v>342</v>
       </c>
-      <c r="E165" s="2" t="s">
+      <c r="F165" s="2" t="s">
         <v>403</v>
-      </c>
-      <c r="F165" s="2" t="s">
-        <v>546</v>
       </c>
       <c r="G165" s="2" t="s">
         <v>546</v>
       </c>
       <c r="H165" s="2" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="166" spans="1:8" x14ac:dyDescent="0.25">
+        <v>546</v>
+      </c>
+      <c r="I165" s="2" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A166" s="2" t="s">
         <v>171</v>
       </c>
@@ -6031,27 +6298,30 @@
         <v>171</v>
       </c>
       <c r="F166" s="2" t="s">
-        <v>547</v>
+        <v>171</v>
       </c>
       <c r="G166" s="2" t="s">
         <v>547</v>
       </c>
       <c r="H166" s="2" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="167" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C167" s="2" t="s">
+        <v>547</v>
+      </c>
+      <c r="I166" s="2" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="167" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="D167" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="G167" s="3" t="s">
+      <c r="H167" s="3" t="s">
         <v>727</v>
       </c>
-      <c r="H167" s="3" t="s">
+      <c r="I167" s="3" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="168" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A168" s="2" t="s">
         <v>173</v>
       </c>
@@ -6068,56 +6338,59 @@
         <v>173</v>
       </c>
       <c r="F168" s="2" t="s">
-        <v>548</v>
+        <v>173</v>
       </c>
       <c r="G168" s="2" t="s">
         <v>548</v>
       </c>
       <c r="H168" s="2" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="169" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B169" s="2" t="s">
-        <v>174</v>
-      </c>
+        <v>548</v>
+      </c>
+      <c r="I168" s="2" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="169" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C169" s="2" t="s">
         <v>174</v>
       </c>
       <c r="D169" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="F169" s="2" t="s">
-        <v>549</v>
+      <c r="E169" s="2" t="s">
+        <v>174</v>
       </c>
       <c r="G169" s="2" t="s">
         <v>549</v>
       </c>
       <c r="H169" s="2" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="170" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B170" s="2" t="s">
-        <v>175</v>
-      </c>
+        <v>549</v>
+      </c>
+      <c r="I169" s="2" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="170" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C170" s="2" t="s">
         <v>175</v>
       </c>
       <c r="D170" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="F170" s="2" t="s">
-        <v>550</v>
+      <c r="E170" s="2" t="s">
+        <v>175</v>
       </c>
       <c r="G170" s="2" t="s">
         <v>550</v>
       </c>
       <c r="H170" s="2" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="171" spans="1:8" x14ac:dyDescent="0.25">
+        <v>550</v>
+      </c>
+      <c r="I170" s="2" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="171" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A171" s="2" t="s">
         <v>176</v>
       </c>
@@ -6134,47 +6407,50 @@
         <v>176</v>
       </c>
       <c r="F171" s="2" t="s">
-        <v>551</v>
+        <v>176</v>
       </c>
       <c r="G171" s="2" t="s">
         <v>551</v>
       </c>
       <c r="H171" s="2" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="172" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B172" s="2" t="s">
-        <v>177</v>
-      </c>
+        <v>551</v>
+      </c>
+      <c r="I171" s="2" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="172" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C172" s="2" t="s">
         <v>177</v>
       </c>
       <c r="D172" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="F172" s="2" t="s">
-        <v>552</v>
+      <c r="E172" s="2" t="s">
+        <v>177</v>
       </c>
       <c r="G172" s="2" t="s">
         <v>552</v>
       </c>
       <c r="H172" s="2" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="173" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C173" s="2" t="s">
+        <v>552</v>
+      </c>
+      <c r="I172" s="2" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="173" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="D173" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="G173" s="3" t="s">
+      <c r="H173" s="3" t="s">
         <v>728</v>
       </c>
-      <c r="H173" s="3" t="s">
+      <c r="I173" s="3" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="174" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A174" s="2" t="s">
         <v>179</v>
       </c>
@@ -6191,27 +6467,30 @@
         <v>179</v>
       </c>
       <c r="F174" s="2" t="s">
-        <v>553</v>
+        <v>179</v>
       </c>
       <c r="G174" s="2" t="s">
         <v>553</v>
       </c>
       <c r="H174" s="2" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="175" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C175" s="2" t="s">
+        <v>553</v>
+      </c>
+      <c r="I174" s="2" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="175" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="D175" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="G175" s="3" t="s">
+      <c r="H175" s="3" t="s">
         <v>729</v>
       </c>
-      <c r="H175" s="3" t="s">
+      <c r="I175" s="3" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="176" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A176" s="2" t="s">
         <v>181</v>
       </c>
@@ -6228,73 +6507,79 @@
         <v>181</v>
       </c>
       <c r="F176" s="2" t="s">
-        <v>554</v>
+        <v>181</v>
       </c>
       <c r="G176" s="2" t="s">
         <v>554</v>
       </c>
       <c r="H176" s="2" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="177" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B177" s="2" t="s">
+        <v>554</v>
+      </c>
+      <c r="I176" s="2" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="177" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C177" s="2" t="s">
         <v>405</v>
       </c>
-      <c r="C177" s="2" t="s">
+      <c r="D177" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="D177" s="2" t="s">
+      <c r="E177" s="2" t="s">
         <v>322</v>
-      </c>
-      <c r="F177" s="2" t="s">
-        <v>555</v>
       </c>
       <c r="G177" s="2" t="s">
         <v>555</v>
       </c>
       <c r="H177" s="2" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="178" spans="1:8" x14ac:dyDescent="0.25">
+        <v>555</v>
+      </c>
+      <c r="I177" s="2" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="178" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A178" s="2" t="s">
         <v>430</v>
       </c>
       <c r="B178" s="2" t="s">
+        <v>430</v>
+      </c>
+      <c r="C178" s="2" t="s">
         <v>348</v>
       </c>
-      <c r="C178" s="2" t="s">
+      <c r="D178" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="D178" s="2" t="s">
+      <c r="E178" s="2" t="s">
         <v>348</v>
       </c>
-      <c r="E178" s="2" t="s">
+      <c r="F178" s="2" t="s">
         <v>437</v>
-      </c>
-      <c r="F178" s="2" t="s">
-        <v>556</v>
       </c>
       <c r="G178" s="2" t="s">
         <v>556</v>
       </c>
       <c r="H178" s="2" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="179" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C179" s="2" t="s">
+        <v>556</v>
+      </c>
+      <c r="I178" s="2" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="179" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="D179" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="G179" s="3" t="s">
+      <c r="H179" s="3" t="s">
         <v>730</v>
       </c>
-      <c r="H179" s="3" t="s">
+      <c r="I179" s="3" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="180" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A180" s="2" t="s">
         <v>12</v>
       </c>
@@ -6307,48 +6592,51 @@
       <c r="D180" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F180" s="2" t="s">
-        <v>557</v>
+      <c r="E180" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="G180" s="2" t="s">
         <v>557</v>
       </c>
       <c r="H180" s="2" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="181" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C181" s="2" t="s">
+        <v>557</v>
+      </c>
+      <c r="I180" s="2" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="181" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="D181" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="G181" s="3" t="s">
+      <c r="H181" s="3" t="s">
         <v>731</v>
       </c>
-      <c r="H181" s="3" t="s">
+      <c r="I181" s="3" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="182" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B182" s="2" t="s">
-        <v>186</v>
-      </c>
+    <row r="182" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C182" s="2" t="s">
         <v>186</v>
       </c>
       <c r="D182" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="F182" s="2" t="s">
-        <v>558</v>
+      <c r="E182" s="2" t="s">
+        <v>186</v>
       </c>
       <c r="G182" s="2" t="s">
         <v>558</v>
       </c>
       <c r="H182" s="2" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="183" spans="1:8" x14ac:dyDescent="0.25">
+        <v>558</v>
+      </c>
+      <c r="I182" s="2" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="183" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A183" s="2" t="s">
         <v>187</v>
       </c>
@@ -6365,38 +6653,41 @@
         <v>187</v>
       </c>
       <c r="F183" s="2" t="s">
-        <v>559</v>
+        <v>187</v>
       </c>
       <c r="G183" s="2" t="s">
         <v>559</v>
       </c>
       <c r="H183" s="2" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="184" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B184" s="2" t="s">
-        <v>188</v>
-      </c>
+        <v>559</v>
+      </c>
+      <c r="I183" s="2" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="184" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C184" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="F184" s="2" t="s">
-        <v>560</v>
+      <c r="D184" s="2" t="s">
+        <v>188</v>
       </c>
       <c r="G184" s="2" t="s">
         <v>560</v>
       </c>
       <c r="H184" s="2" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="185" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
+        <v>560</v>
+      </c>
+      <c r="I184" s="2" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="185" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A185" s="5" t="s">
         <v>669</v>
       </c>
       <c r="B185" s="5" t="s">
-        <v>189</v>
+        <v>669</v>
       </c>
       <c r="C185" s="5" t="s">
         <v>189</v>
@@ -6404,17 +6695,20 @@
       <c r="D185" s="5" t="s">
         <v>189</v>
       </c>
-      <c r="F185" s="5" t="s">
-        <v>561</v>
+      <c r="E185" s="5" t="s">
+        <v>189</v>
       </c>
       <c r="G185" s="5" t="s">
         <v>561</v>
       </c>
       <c r="H185" s="5" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="186" spans="1:8" x14ac:dyDescent="0.25">
+        <v>561</v>
+      </c>
+      <c r="I185" s="5" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="186" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A186" s="2" t="s">
         <v>190</v>
       </c>
@@ -6431,60 +6725,63 @@
         <v>190</v>
       </c>
       <c r="F186" s="2" t="s">
-        <v>562</v>
+        <v>190</v>
       </c>
       <c r="G186" s="2" t="s">
         <v>562</v>
       </c>
       <c r="H186" s="2" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="187" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C187" s="2" t="s">
+        <v>562</v>
+      </c>
+      <c r="I186" s="2" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="187" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="D187" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="G187" s="2" t="s">
+      <c r="H187" s="2" t="s">
         <v>563</v>
       </c>
-      <c r="H187" s="2" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="188" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B188" s="2" t="s">
+      <c r="I187" s="2" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="188" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C188" s="2" t="s">
         <v>407</v>
       </c>
-      <c r="C188" s="2" t="s">
+      <c r="D188" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="G188" s="3" t="s">
+      <c r="H188" s="3" t="s">
         <v>732</v>
       </c>
-      <c r="H188" s="3" t="s">
+      <c r="I188" s="3" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="189" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C189" s="2" t="s">
-        <v>193</v>
-      </c>
+    <row r="189" spans="1:9" x14ac:dyDescent="0.2">
       <c r="D189" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="G189" s="2" t="s">
+      <c r="E189" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="H189" s="2" t="s">
         <v>564</v>
       </c>
-      <c r="H189" s="2" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="190" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I189" s="2" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="190" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A190" s="5" t="s">
         <v>670</v>
       </c>
       <c r="B190" s="5" t="s">
-        <v>194</v>
+        <v>670</v>
       </c>
       <c r="C190" s="5" t="s">
         <v>194</v>
@@ -6492,17 +6789,20 @@
       <c r="D190" s="5" t="s">
         <v>194</v>
       </c>
-      <c r="F190" s="5" t="s">
-        <v>671</v>
+      <c r="E190" s="5" t="s">
+        <v>194</v>
       </c>
       <c r="G190" s="5" t="s">
         <v>671</v>
       </c>
       <c r="H190" s="5" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="191" spans="1:8" x14ac:dyDescent="0.25">
+        <v>671</v>
+      </c>
+      <c r="I190" s="5" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="191" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A191" s="2" t="s">
         <v>195</v>
       </c>
@@ -6519,16 +6819,19 @@
         <v>195</v>
       </c>
       <c r="F191" s="2" t="s">
-        <v>565</v>
+        <v>195</v>
       </c>
       <c r="G191" s="2" t="s">
         <v>565</v>
       </c>
       <c r="H191" s="2" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="192" spans="1:8" x14ac:dyDescent="0.25">
+        <v>565</v>
+      </c>
+      <c r="I191" s="2" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="192" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A192" s="2" t="s">
         <v>196</v>
       </c>
@@ -6545,76 +6848,82 @@
         <v>196</v>
       </c>
       <c r="F192" s="2" t="s">
-        <v>566</v>
+        <v>196</v>
       </c>
       <c r="G192" s="2" t="s">
         <v>566</v>
       </c>
       <c r="H192" s="2" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="193" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B193" s="2" t="s">
+        <v>566</v>
+      </c>
+      <c r="I192" s="2" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="193" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C193" s="2" t="s">
         <v>394</v>
       </c>
-      <c r="D193" s="2" t="s">
+      <c r="E193" s="2" t="s">
         <v>343</v>
-      </c>
-      <c r="F193" s="2" t="s">
-        <v>567</v>
       </c>
       <c r="G193" s="2" t="s">
         <v>567</v>
       </c>
       <c r="H193" s="2" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="194" spans="1:8" x14ac:dyDescent="0.25">
+        <v>567</v>
+      </c>
+      <c r="I193" s="2" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="194" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A194" s="2" t="s">
         <v>353</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>197</v>
+        <v>353</v>
       </c>
       <c r="C194" s="2" t="s">
         <v>197</v>
       </c>
       <c r="D194" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="E194" s="2" t="s">
         <v>353</v>
       </c>
-      <c r="E194" s="2" t="s">
+      <c r="F194" s="2" t="s">
         <v>197</v>
-      </c>
-      <c r="F194" s="2" t="s">
-        <v>568</v>
       </c>
       <c r="G194" s="2" t="s">
         <v>568</v>
       </c>
       <c r="H194" s="2" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="195" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B195" s="2" t="s">
-        <v>198</v>
-      </c>
+        <v>568</v>
+      </c>
+      <c r="I194" s="2" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="195" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C195" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="F195" s="2" t="s">
-        <v>569</v>
+      <c r="D195" s="2" t="s">
+        <v>198</v>
       </c>
       <c r="G195" s="2" t="s">
         <v>569</v>
       </c>
       <c r="H195" s="2" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="196" spans="1:8" x14ac:dyDescent="0.25">
+        <v>569</v>
+      </c>
+      <c r="I195" s="2" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="196" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A196" s="2" t="s">
         <v>199</v>
       </c>
@@ -6631,16 +6940,19 @@
         <v>199</v>
       </c>
       <c r="F196" s="2" t="s">
-        <v>570</v>
+        <v>199</v>
       </c>
       <c r="G196" s="2" t="s">
         <v>570</v>
       </c>
       <c r="H196" s="2" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="197" spans="1:8" x14ac:dyDescent="0.25">
+        <v>570</v>
+      </c>
+      <c r="I196" s="2" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="197" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A197" s="2" t="s">
         <v>200</v>
       </c>
@@ -6657,33 +6969,36 @@
         <v>200</v>
       </c>
       <c r="F197" s="2" t="s">
-        <v>571</v>
+        <v>200</v>
       </c>
       <c r="G197" s="2" t="s">
         <v>571</v>
       </c>
       <c r="H197" s="2" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="198" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C198" s="2" t="s">
-        <v>201</v>
-      </c>
+        <v>571</v>
+      </c>
+      <c r="I197" s="2" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="198" spans="1:9" x14ac:dyDescent="0.2">
       <c r="D198" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="F198" s="2" t="s">
-        <v>572</v>
+      <c r="E198" s="2" t="s">
+        <v>201</v>
       </c>
       <c r="G198" s="2" t="s">
         <v>572</v>
       </c>
       <c r="H198" s="2" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="199" spans="1:8" x14ac:dyDescent="0.25">
+        <v>572</v>
+      </c>
+      <c r="I198" s="2" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="199" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A199" s="2" t="s">
         <v>202</v>
       </c>
@@ -6700,16 +7015,19 @@
         <v>202</v>
       </c>
       <c r="F199" s="2" t="s">
-        <v>573</v>
+        <v>202</v>
       </c>
       <c r="G199" s="2" t="s">
         <v>573</v>
       </c>
       <c r="H199" s="2" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="200" spans="1:8" x14ac:dyDescent="0.25">
+        <v>573</v>
+      </c>
+      <c r="I199" s="2" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="200" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A200" s="2" t="s">
         <v>203</v>
       </c>
@@ -6726,16 +7044,19 @@
         <v>203</v>
       </c>
       <c r="F200" s="2" t="s">
-        <v>574</v>
+        <v>203</v>
       </c>
       <c r="G200" s="2" t="s">
         <v>574</v>
       </c>
       <c r="H200" s="2" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="201" spans="1:8" x14ac:dyDescent="0.25">
+        <v>574</v>
+      </c>
+      <c r="I200" s="2" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="201" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A201" s="2" t="s">
         <v>204</v>
       </c>
@@ -6748,17 +7069,20 @@
       <c r="D201" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="F201" s="2" t="s">
-        <v>575</v>
+      <c r="E201" s="2" t="s">
+        <v>204</v>
       </c>
       <c r="G201" s="2" t="s">
         <v>575</v>
       </c>
       <c r="H201" s="2" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="202" spans="1:8" x14ac:dyDescent="0.25">
+        <v>575</v>
+      </c>
+      <c r="I201" s="2" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="202" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A202" s="2" t="s">
         <v>205</v>
       </c>
@@ -6775,36 +7099,39 @@
         <v>205</v>
       </c>
       <c r="F202" s="2" t="s">
-        <v>576</v>
+        <v>205</v>
       </c>
       <c r="G202" s="2" t="s">
         <v>576</v>
       </c>
       <c r="H202" s="2" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="203" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B203" s="2" t="s">
-        <v>206</v>
-      </c>
+        <v>576</v>
+      </c>
+      <c r="I202" s="2" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="203" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C203" s="2" t="s">
         <v>206</v>
       </c>
       <c r="D203" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="F203" s="2" t="s">
-        <v>577</v>
+      <c r="E203" s="2" t="s">
+        <v>206</v>
       </c>
       <c r="G203" s="2" t="s">
         <v>577</v>
       </c>
       <c r="H203" s="2" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="204" spans="1:8" x14ac:dyDescent="0.25">
+        <v>577</v>
+      </c>
+      <c r="I203" s="2" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="204" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A204" s="2" t="s">
         <v>207</v>
       </c>
@@ -6821,16 +7148,19 @@
         <v>207</v>
       </c>
       <c r="F204" s="2" t="s">
-        <v>578</v>
+        <v>207</v>
       </c>
       <c r="G204" s="2" t="s">
         <v>578</v>
       </c>
       <c r="H204" s="2" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="205" spans="1:8" x14ac:dyDescent="0.25">
+        <v>578</v>
+      </c>
+      <c r="I204" s="2" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="205" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A205" s="2" t="s">
         <v>208</v>
       </c>
@@ -6847,47 +7177,50 @@
         <v>208</v>
       </c>
       <c r="F205" s="2" t="s">
-        <v>579</v>
+        <v>208</v>
       </c>
       <c r="G205" s="2" t="s">
         <v>579</v>
       </c>
       <c r="H205" s="2" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="206" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B206" s="2" t="s">
+        <v>579</v>
+      </c>
+      <c r="I205" s="2" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="206" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C206" s="2" t="s">
         <v>345</v>
       </c>
-      <c r="C206" s="2" t="s">
+      <c r="D206" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="D206" s="2" t="s">
+      <c r="E206" s="2" t="s">
         <v>345</v>
-      </c>
-      <c r="F206" s="2" t="s">
-        <v>580</v>
       </c>
       <c r="G206" s="2" t="s">
         <v>580</v>
       </c>
       <c r="H206" s="2" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="207" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C207" s="2" t="s">
+        <v>580</v>
+      </c>
+      <c r="I206" s="2" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="207" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="D207" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="G207" s="3" t="s">
+      <c r="H207" s="3" t="s">
         <v>733</v>
       </c>
-      <c r="H207" s="3" t="s">
+      <c r="I207" s="3" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="208" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A208" s="2" t="s">
         <v>346</v>
       </c>
@@ -6895,25 +7228,28 @@
         <v>346</v>
       </c>
       <c r="C208" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="D208" s="2" t="s">
         <v>211</v>
-      </c>
-      <c r="D208" s="2" t="s">
-        <v>346</v>
       </c>
       <c r="E208" s="2" t="s">
         <v>346</v>
       </c>
       <c r="F208" s="2" t="s">
-        <v>581</v>
+        <v>346</v>
       </c>
       <c r="G208" s="2" t="s">
         <v>581</v>
       </c>
       <c r="H208" s="2" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="209" spans="1:8" x14ac:dyDescent="0.25">
+        <v>581</v>
+      </c>
+      <c r="I208" s="2" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="209" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A209" s="2" t="s">
         <v>212</v>
       </c>
@@ -6930,27 +7266,30 @@
         <v>212</v>
       </c>
       <c r="F209" s="2" t="s">
-        <v>582</v>
+        <v>212</v>
       </c>
       <c r="G209" s="2" t="s">
         <v>582</v>
       </c>
       <c r="H209" s="2" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="210" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C210" s="2" t="s">
+        <v>582</v>
+      </c>
+      <c r="I209" s="2" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="210" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="D210" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="G210" s="3" t="s">
+      <c r="H210" s="3" t="s">
         <v>734</v>
       </c>
-      <c r="H210" s="3" t="s">
+      <c r="I210" s="3" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="211" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A211" s="2" t="s">
         <v>214</v>
       </c>
@@ -6967,16 +7306,19 @@
         <v>214</v>
       </c>
       <c r="F211" s="2" t="s">
-        <v>583</v>
+        <v>214</v>
       </c>
       <c r="G211" s="2" t="s">
         <v>583</v>
       </c>
       <c r="H211" s="2" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="212" spans="1:8" x14ac:dyDescent="0.25">
+        <v>583</v>
+      </c>
+      <c r="I211" s="2" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="212" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A212" s="2" t="s">
         <v>215</v>
       </c>
@@ -6993,87 +7335,93 @@
         <v>215</v>
       </c>
       <c r="F212" s="2" t="s">
-        <v>584</v>
+        <v>215</v>
       </c>
       <c r="G212" s="2" t="s">
         <v>584</v>
       </c>
       <c r="H212" s="2" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="213" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C213" s="2" t="s">
-        <v>216</v>
-      </c>
+        <v>584</v>
+      </c>
+      <c r="I212" s="2" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="213" spans="1:9" x14ac:dyDescent="0.2">
       <c r="D213" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="G213" s="3" t="s">
+      <c r="E213" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="H213" s="3" t="s">
         <v>735</v>
       </c>
-      <c r="H213" s="3" t="s">
+      <c r="I213" s="3" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="214" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C214" s="2" t="s">
+    <row r="214" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="D214" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="D214" s="2" t="s">
+      <c r="E214" s="2" t="s">
         <v>347</v>
-      </c>
-      <c r="F214" s="2" t="s">
-        <v>586</v>
       </c>
       <c r="G214" s="2" t="s">
         <v>586</v>
       </c>
       <c r="H214" s="2" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="215" spans="1:8" x14ac:dyDescent="0.25">
+        <v>586</v>
+      </c>
+      <c r="I214" s="2" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="215" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A215" s="2" t="s">
         <v>329</v>
       </c>
       <c r="B215" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="C215" s="2" t="s">
         <v>410</v>
       </c>
-      <c r="C215" s="2" t="s">
+      <c r="D215" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="D215" s="2" t="s">
+      <c r="E215" s="2" t="s">
         <v>329</v>
-      </c>
-      <c r="F215" s="2" t="s">
-        <v>585</v>
       </c>
       <c r="G215" s="2" t="s">
         <v>585</v>
       </c>
       <c r="H215" s="2" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="216" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B216" s="2" t="s">
+        <v>585</v>
+      </c>
+      <c r="I215" s="2" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="216" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C216" s="2" t="s">
         <v>408</v>
       </c>
-      <c r="C216" s="2" t="s">
+      <c r="D216" s="2" t="s">
         <v>219</v>
-      </c>
-      <c r="F216" s="2" t="s">
-        <v>587</v>
       </c>
       <c r="G216" s="2" t="s">
         <v>587</v>
       </c>
       <c r="H216" s="2" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="217" spans="1:8" x14ac:dyDescent="0.25">
+        <v>587</v>
+      </c>
+      <c r="I216" s="2" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="217" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A217" s="2" t="s">
         <v>220</v>
       </c>
@@ -7090,27 +7438,30 @@
         <v>220</v>
       </c>
       <c r="F217" s="2" t="s">
-        <v>588</v>
+        <v>220</v>
       </c>
       <c r="G217" s="2" t="s">
         <v>588</v>
       </c>
       <c r="H217" s="2" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="218" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C218" s="2" t="s">
+        <v>588</v>
+      </c>
+      <c r="I217" s="2" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="218" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="D218" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="G218" s="3" t="s">
+      <c r="H218" s="3" t="s">
         <v>736</v>
       </c>
-      <c r="H218" s="3" t="s">
+      <c r="I218" s="3" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="219" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A219" s="2" t="s">
         <v>222</v>
       </c>
@@ -7127,27 +7478,30 @@
         <v>222</v>
       </c>
       <c r="F219" s="2" t="s">
-        <v>589</v>
+        <v>222</v>
       </c>
       <c r="G219" s="2" t="s">
         <v>589</v>
       </c>
       <c r="H219" s="2" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="220" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D220" s="2" t="s">
+        <v>589</v>
+      </c>
+      <c r="I219" s="2" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="220" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E220" s="2" t="s">
         <v>349</v>
       </c>
-      <c r="G220" s="3" t="s">
+      <c r="H220" s="3" t="s">
         <v>737</v>
       </c>
-      <c r="H220" s="3" t="s">
+      <c r="I220" s="3" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="221" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A221" s="2" t="s">
         <v>223</v>
       </c>
@@ -7164,53 +7518,59 @@
         <v>223</v>
       </c>
       <c r="F221" s="2" t="s">
-        <v>590</v>
+        <v>223</v>
       </c>
       <c r="G221" s="2" t="s">
         <v>590</v>
       </c>
       <c r="H221" s="2" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="222" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
+        <v>590</v>
+      </c>
+      <c r="I221" s="2" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="222" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A222" s="5" t="s">
         <v>432</v>
       </c>
       <c r="B222" s="5" t="s">
+        <v>432</v>
+      </c>
+      <c r="C222" s="5" t="s">
         <v>411</v>
       </c>
-      <c r="D222" s="5" t="s">
+      <c r="E222" s="5" t="s">
         <v>350</v>
-      </c>
-      <c r="F222" s="5" t="s">
-        <v>591</v>
       </c>
       <c r="G222" s="5" t="s">
         <v>591</v>
       </c>
       <c r="H222" s="5" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="223" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B223" s="2" t="s">
+        <v>591</v>
+      </c>
+      <c r="I222" s="5" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="223" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C223" s="2" t="s">
         <v>409</v>
       </c>
-      <c r="C223" s="2" t="s">
+      <c r="D223" s="2" t="s">
         <v>224</v>
-      </c>
-      <c r="F223" s="2" t="s">
-        <v>592</v>
       </c>
       <c r="G223" s="2" t="s">
         <v>592</v>
       </c>
       <c r="H223" s="2" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="224" spans="1:8" x14ac:dyDescent="0.25">
+        <v>592</v>
+      </c>
+      <c r="I223" s="2" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="224" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A224" s="2" t="s">
         <v>225</v>
       </c>
@@ -7227,47 +7587,50 @@
         <v>225</v>
       </c>
       <c r="F224" s="2" t="s">
-        <v>593</v>
+        <v>225</v>
       </c>
       <c r="G224" s="2" t="s">
         <v>593</v>
       </c>
       <c r="H224" s="2" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="225" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B225" s="2" t="s">
+        <v>593</v>
+      </c>
+      <c r="I224" s="2" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="225" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C225" s="2" t="s">
         <v>351</v>
       </c>
-      <c r="C225" s="2" t="s">
+      <c r="D225" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="D225" s="2" t="s">
+      <c r="E225" s="2" t="s">
         <v>351</v>
-      </c>
-      <c r="F225" s="2" t="s">
-        <v>594</v>
       </c>
       <c r="G225" s="2" t="s">
         <v>594</v>
       </c>
       <c r="H225" s="2" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="226" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C226" s="2" t="s">
+        <v>594</v>
+      </c>
+      <c r="I225" s="2" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="226" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="D226" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="G226" s="3" t="s">
+      <c r="H226" s="3" t="s">
         <v>738</v>
       </c>
-      <c r="H226" s="3" t="s">
+      <c r="I226" s="3" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="227" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A227" s="2" t="s">
         <v>228</v>
       </c>
@@ -7284,16 +7647,19 @@
         <v>228</v>
       </c>
       <c r="F227" s="2" t="s">
-        <v>595</v>
+        <v>228</v>
       </c>
       <c r="G227" s="2" t="s">
         <v>595</v>
       </c>
       <c r="H227" s="2" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="228" spans="1:8" x14ac:dyDescent="0.25">
+        <v>595</v>
+      </c>
+      <c r="I227" s="2" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="228" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A228" s="2" t="s">
         <v>229</v>
       </c>
@@ -7310,16 +7676,19 @@
         <v>229</v>
       </c>
       <c r="F228" s="2" t="s">
-        <v>596</v>
+        <v>229</v>
       </c>
       <c r="G228" s="2" t="s">
         <v>596</v>
       </c>
       <c r="H228" s="2" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="229" spans="1:8" x14ac:dyDescent="0.25">
+        <v>596</v>
+      </c>
+      <c r="I228" s="2" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="229" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A229" s="2" t="s">
         <v>230</v>
       </c>
@@ -7336,38 +7705,41 @@
         <v>230</v>
       </c>
       <c r="F229" s="2" t="s">
-        <v>597</v>
+        <v>230</v>
       </c>
       <c r="G229" s="2" t="s">
         <v>597</v>
       </c>
       <c r="H229" s="2" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="230" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C230" s="2" t="s">
+        <v>597</v>
+      </c>
+      <c r="I229" s="2" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="230" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="D230" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="G230" s="3" t="s">
+      <c r="H230" s="3" t="s">
         <v>739</v>
       </c>
-      <c r="H230" s="3" t="s">
+      <c r="I230" s="3" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="231" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C231" s="2" t="s">
+    <row r="231" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="D231" s="2" t="s">
         <v>232</v>
       </c>
-      <c r="G231" s="3" t="s">
+      <c r="H231" s="3" t="s">
         <v>740</v>
       </c>
-      <c r="H231" s="3" t="s">
+      <c r="I231" s="3" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="232" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A232" s="2" t="s">
         <v>233</v>
       </c>
@@ -7384,16 +7756,19 @@
         <v>233</v>
       </c>
       <c r="F232" s="2" t="s">
-        <v>598</v>
+        <v>233</v>
       </c>
       <c r="G232" s="2" t="s">
         <v>598</v>
       </c>
       <c r="H232" s="2" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="233" spans="1:8" x14ac:dyDescent="0.25">
+        <v>598</v>
+      </c>
+      <c r="I232" s="2" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="233" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A233" s="2" t="s">
         <v>234</v>
       </c>
@@ -7410,47 +7785,50 @@
         <v>234</v>
       </c>
       <c r="F233" s="2" t="s">
-        <v>599</v>
+        <v>234</v>
       </c>
       <c r="G233" s="2" t="s">
         <v>599</v>
       </c>
       <c r="H233" s="2" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="234" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C234" s="2" t="s">
+        <v>599</v>
+      </c>
+      <c r="I233" s="2" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="234" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="D234" s="2" t="s">
         <v>235</v>
       </c>
-      <c r="G234" s="3" t="s">
+      <c r="H234" s="3" t="s">
         <v>741</v>
       </c>
-      <c r="H234" s="3" t="s">
+      <c r="I234" s="3" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="235" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B235" s="2" t="s">
+    <row r="235" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C235" s="2" t="s">
         <v>352</v>
       </c>
-      <c r="C235" s="2" t="s">
+      <c r="D235" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="D235" s="2" t="s">
+      <c r="E235" s="2" t="s">
         <v>352</v>
-      </c>
-      <c r="F235" s="2" t="s">
-        <v>600</v>
       </c>
       <c r="G235" s="2" t="s">
         <v>600</v>
       </c>
       <c r="H235" s="2" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="236" spans="1:8" x14ac:dyDescent="0.25">
+        <v>600</v>
+      </c>
+      <c r="I235" s="2" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="236" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A236" s="2" t="s">
         <v>237</v>
       </c>
@@ -7467,44 +7845,47 @@
         <v>237</v>
       </c>
       <c r="F236" s="2" t="s">
-        <v>601</v>
+        <v>237</v>
       </c>
       <c r="G236" s="2" t="s">
         <v>601</v>
       </c>
       <c r="H236" s="2" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="237" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C237" s="2" t="s">
+        <v>601</v>
+      </c>
+      <c r="I236" s="2" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="237" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="D237" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="D237" s="2" t="s">
+      <c r="E237" s="2" t="s">
         <v>355</v>
-      </c>
-      <c r="F237" s="2" t="s">
-        <v>602</v>
       </c>
       <c r="G237" s="2" t="s">
         <v>602</v>
       </c>
       <c r="H237" s="2" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="238" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C238" s="2" t="s">
+        <v>602</v>
+      </c>
+      <c r="I237" s="2" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="238" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="D238" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="G238" s="3" t="s">
+      <c r="H238" s="3" t="s">
         <v>742</v>
       </c>
-      <c r="H238" s="3" t="s">
+      <c r="I238" s="3" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="239" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A239" s="2" t="s">
         <v>240</v>
       </c>
@@ -7521,16 +7902,19 @@
         <v>240</v>
       </c>
       <c r="F239" s="2" t="s">
-        <v>603</v>
+        <v>240</v>
       </c>
       <c r="G239" s="2" t="s">
         <v>603</v>
       </c>
       <c r="H239" s="2" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="240" spans="1:8" x14ac:dyDescent="0.25">
+        <v>603</v>
+      </c>
+      <c r="I239" s="2" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="240" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A240" s="2" t="s">
         <v>356</v>
       </c>
@@ -7538,25 +7922,28 @@
         <v>356</v>
       </c>
       <c r="C240" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="D240" s="2" t="s">
         <v>241</v>
-      </c>
-      <c r="D240" s="2" t="s">
-        <v>356</v>
       </c>
       <c r="E240" s="2" t="s">
         <v>356</v>
       </c>
       <c r="F240" s="2" t="s">
-        <v>604</v>
+        <v>356</v>
       </c>
       <c r="G240" s="2" t="s">
         <v>604</v>
       </c>
       <c r="H240" s="2" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="241" spans="1:8" x14ac:dyDescent="0.25">
+        <v>604</v>
+      </c>
+      <c r="I240" s="2" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="241" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A241" s="2" t="s">
         <v>242</v>
       </c>
@@ -7569,85 +7956,88 @@
       <c r="D241" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="F241" s="2" t="s">
-        <v>605</v>
+      <c r="E241" s="2" t="s">
+        <v>242</v>
       </c>
       <c r="G241" s="2" t="s">
         <v>605</v>
       </c>
       <c r="H241" s="2" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="242" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C242" s="2" t="s">
+        <v>605</v>
+      </c>
+      <c r="I241" s="2" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="242" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="D242" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="G242" s="3" t="s">
+      <c r="H242" s="3" t="s">
         <v>743</v>
       </c>
-      <c r="H242" s="3" t="s">
+      <c r="I242" s="3" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="243" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B243" s="2" t="s">
-        <v>244</v>
-      </c>
+    <row r="243" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C243" s="2" t="s">
         <v>244</v>
       </c>
       <c r="D243" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="F243" s="2" t="s">
-        <v>606</v>
+      <c r="E243" s="2" t="s">
+        <v>244</v>
       </c>
       <c r="G243" s="2" t="s">
         <v>606</v>
       </c>
       <c r="H243" s="2" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="244" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B244" s="2" t="s">
+        <v>606</v>
+      </c>
+      <c r="I243" s="2" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="244" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C244" s="2" t="s">
         <v>412</v>
       </c>
-      <c r="C244" s="2" t="s">
+      <c r="D244" s="2" t="s">
         <v>245</v>
-      </c>
-      <c r="F244" s="2" t="s">
-        <v>607</v>
       </c>
       <c r="G244" s="2" t="s">
         <v>607</v>
       </c>
       <c r="H244" s="2" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="245" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B245" s="2" t="s">
+        <v>607</v>
+      </c>
+      <c r="I244" s="2" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="245" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C245" s="2" t="s">
         <v>362</v>
       </c>
-      <c r="C245" s="2" t="s">
+      <c r="D245" s="2" t="s">
         <v>246</v>
       </c>
-      <c r="D245" s="2" t="s">
+      <c r="E245" s="2" t="s">
         <v>362</v>
-      </c>
-      <c r="F245" s="2" t="s">
-        <v>608</v>
       </c>
       <c r="G245" s="2" t="s">
         <v>608</v>
       </c>
       <c r="H245" s="2" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="246" spans="1:8" x14ac:dyDescent="0.25">
+        <v>608</v>
+      </c>
+      <c r="I245" s="2" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="246" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A246" s="2" t="s">
         <v>363</v>
       </c>
@@ -7655,25 +8045,28 @@
         <v>363</v>
       </c>
       <c r="C246" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="D246" s="2" t="s">
         <v>247</v>
-      </c>
-      <c r="D246" s="2" t="s">
-        <v>363</v>
       </c>
       <c r="E246" s="2" t="s">
         <v>363</v>
       </c>
       <c r="F246" s="2" t="s">
-        <v>609</v>
+        <v>363</v>
       </c>
       <c r="G246" s="2" t="s">
         <v>609</v>
       </c>
       <c r="H246" s="2" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="247" spans="1:8" x14ac:dyDescent="0.25">
+        <v>609</v>
+      </c>
+      <c r="I246" s="2" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="247" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A247" s="2" t="s">
         <v>248</v>
       </c>
@@ -7690,16 +8083,19 @@
         <v>248</v>
       </c>
       <c r="F247" s="2" t="s">
-        <v>610</v>
+        <v>248</v>
       </c>
       <c r="G247" s="2" t="s">
         <v>610</v>
       </c>
       <c r="H247" s="2" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="248" spans="1:8" x14ac:dyDescent="0.25">
+        <v>610</v>
+      </c>
+      <c r="I247" s="2" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="248" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A248" s="2" t="s">
         <v>10</v>
       </c>
@@ -7716,78 +8112,81 @@
         <v>10</v>
       </c>
       <c r="F248" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G248" s="2" t="s">
         <v>11</v>
       </c>
       <c r="H248" s="2" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="249" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D249" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I248" s="2" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="249" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E249" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="G249" s="3" t="s">
+      <c r="H249" s="3" t="s">
         <v>744</v>
       </c>
-      <c r="H249" s="3" t="s">
+      <c r="I249" s="3" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="250" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C250" s="2" t="s">
+    <row r="250" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="D250" s="2" t="s">
         <v>249</v>
       </c>
-      <c r="G250" s="3" t="s">
+      <c r="H250" s="3" t="s">
         <v>745</v>
       </c>
-      <c r="H250" s="3" t="s">
+      <c r="I250" s="3" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="251" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B251" s="2" t="s">
-        <v>250</v>
-      </c>
+    <row r="251" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C251" s="2" t="s">
         <v>250</v>
       </c>
       <c r="D251" s="2" t="s">
         <v>250</v>
       </c>
-      <c r="F251" s="2" t="s">
-        <v>611</v>
+      <c r="E251" s="2" t="s">
+        <v>250</v>
       </c>
       <c r="G251" s="2" t="s">
         <v>611</v>
       </c>
       <c r="H251" s="2" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="252" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B252" s="2" t="s">
+        <v>611</v>
+      </c>
+      <c r="I251" s="2" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="252" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C252" s="2" t="s">
         <v>365</v>
       </c>
-      <c r="C252" s="2" t="s">
+      <c r="D252" s="2" t="s">
         <v>251</v>
       </c>
-      <c r="D252" s="2" t="s">
+      <c r="E252" s="2" t="s">
         <v>365</v>
-      </c>
-      <c r="F252" s="2" t="s">
-        <v>612</v>
       </c>
       <c r="G252" s="2" t="s">
         <v>612</v>
       </c>
       <c r="H252" s="2" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="253" spans="1:8" x14ac:dyDescent="0.25">
+        <v>612</v>
+      </c>
+      <c r="I252" s="2" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="253" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A253" s="2" t="s">
         <v>252</v>
       </c>
@@ -7804,30 +8203,33 @@
         <v>252</v>
       </c>
       <c r="F253" s="2" t="s">
-        <v>613</v>
+        <v>252</v>
       </c>
       <c r="G253" s="2" t="s">
         <v>613</v>
       </c>
       <c r="H253" s="2" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="254" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B254" s="2" t="s">
+        <v>613</v>
+      </c>
+      <c r="I253" s="2" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="254" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C254" s="2" t="s">
         <v>414</v>
-      </c>
-      <c r="F254" s="2" t="s">
-        <v>614</v>
       </c>
       <c r="G254" s="2" t="s">
         <v>614</v>
       </c>
       <c r="H254" s="2" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="255" spans="1:8" x14ac:dyDescent="0.25">
+        <v>614</v>
+      </c>
+      <c r="I254" s="2" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="255" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A255" s="2" t="s">
         <v>413</v>
       </c>
@@ -7835,25 +8237,28 @@
         <v>413</v>
       </c>
       <c r="C255" s="2" t="s">
-        <v>253</v>
+        <v>413</v>
       </c>
       <c r="D255" s="2" t="s">
         <v>253</v>
       </c>
       <c r="E255" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="F255" s="2" t="s">
         <v>413</v>
-      </c>
-      <c r="F255" s="2" t="s">
-        <v>615</v>
       </c>
       <c r="G255" s="2" t="s">
         <v>615</v>
       </c>
       <c r="H255" s="2" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="256" spans="1:8" x14ac:dyDescent="0.25">
+        <v>615</v>
+      </c>
+      <c r="I255" s="2" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="256" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A256" s="2" t="s">
         <v>254</v>
       </c>
@@ -7870,78 +8275,81 @@
         <v>254</v>
       </c>
       <c r="F256" s="2" t="s">
-        <v>616</v>
+        <v>254</v>
       </c>
       <c r="G256" s="2" t="s">
         <v>616</v>
       </c>
       <c r="H256" s="2" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="257" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C257" s="2" t="s">
+        <v>616</v>
+      </c>
+      <c r="I256" s="2" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="257" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="D257" s="2" t="s">
         <v>255</v>
       </c>
-      <c r="G257" s="3" t="s">
+      <c r="H257" s="3" t="s">
         <v>746</v>
       </c>
-      <c r="H257" s="3" t="s">
+      <c r="I257" s="3" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="258" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C258" s="2" t="s">
+    <row r="258" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="D258" s="2" t="s">
         <v>256</v>
       </c>
-      <c r="G258" s="3" t="s">
+      <c r="H258" s="3" t="s">
         <v>747</v>
       </c>
-      <c r="H258" s="3" t="s">
+      <c r="I258" s="3" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="259" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B259" s="2" t="s">
+    <row r="259" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C259" s="2" t="s">
         <v>366</v>
       </c>
-      <c r="C259" s="2" t="s">
+      <c r="D259" s="2" t="s">
         <v>257</v>
       </c>
-      <c r="D259" s="2" t="s">
+      <c r="E259" s="2" t="s">
         <v>366</v>
-      </c>
-      <c r="F259" s="2" t="s">
-        <v>617</v>
       </c>
       <c r="G259" s="2" t="s">
         <v>617</v>
       </c>
       <c r="H259" s="2" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="260" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B260" s="2" t="s">
-        <v>258</v>
-      </c>
+        <v>617</v>
+      </c>
+      <c r="I259" s="2" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="260" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C260" s="2" t="s">
         <v>258</v>
       </c>
       <c r="D260" s="2" t="s">
         <v>258</v>
       </c>
-      <c r="F260" s="2" t="s">
-        <v>618</v>
+      <c r="E260" s="2" t="s">
+        <v>258</v>
       </c>
       <c r="G260" s="2" t="s">
         <v>618</v>
       </c>
       <c r="H260" s="2" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="261" spans="1:8" x14ac:dyDescent="0.25">
+        <v>618</v>
+      </c>
+      <c r="I260" s="2" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="261" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A261" s="2" t="s">
         <v>367</v>
       </c>
@@ -7949,62 +8357,68 @@
         <v>367</v>
       </c>
       <c r="C261" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="D261" s="2" t="s">
         <v>259</v>
-      </c>
-      <c r="D261" s="2" t="s">
-        <v>367</v>
       </c>
       <c r="E261" s="2" t="s">
         <v>367</v>
       </c>
       <c r="F261" s="2" t="s">
-        <v>619</v>
+        <v>367</v>
       </c>
       <c r="G261" s="2" t="s">
         <v>619</v>
       </c>
       <c r="H261" s="2" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="262" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C262" s="2" t="s">
+        <v>619</v>
+      </c>
+      <c r="I261" s="2" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="262" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="D262" s="2" t="s">
         <v>260</v>
       </c>
-      <c r="G262" s="3" t="s">
+      <c r="H262" s="3" t="s">
         <v>748</v>
       </c>
-      <c r="H262" s="3" t="s">
+      <c r="I262" s="3" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="263" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A263" s="2" t="s">
         <v>429</v>
       </c>
       <c r="B263" s="2" t="s">
+        <v>429</v>
+      </c>
+      <c r="C263" s="2" t="s">
         <v>402</v>
       </c>
-      <c r="C263" s="2" t="s">
+      <c r="D263" s="2" t="s">
         <v>261</v>
       </c>
-      <c r="D263" s="2" t="s">
+      <c r="E263" s="2" t="s">
         <v>354</v>
       </c>
-      <c r="E263" s="2" t="s">
+      <c r="F263" s="2" t="s">
         <v>436</v>
-      </c>
-      <c r="F263" s="2" t="s">
-        <v>620</v>
       </c>
       <c r="G263" s="2" t="s">
         <v>620</v>
       </c>
       <c r="H263" s="2" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="264" spans="1:8" x14ac:dyDescent="0.25">
+        <v>620</v>
+      </c>
+      <c r="I263" s="2" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="264" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A264" s="2" t="s">
         <v>368</v>
       </c>
@@ -8012,22 +8426,25 @@
         <v>368</v>
       </c>
       <c r="C264" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="D264" s="2" t="s">
         <v>262</v>
       </c>
-      <c r="D264" s="2" t="s">
+      <c r="E264" s="2" t="s">
         <v>368</v>
-      </c>
-      <c r="F264" s="2" t="s">
-        <v>15</v>
       </c>
       <c r="G264" s="2" t="s">
         <v>15</v>
       </c>
       <c r="H264" s="2" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="265" spans="1:8" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="I264" s="2" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="265" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A265" s="2" t="s">
         <v>263</v>
       </c>
@@ -8044,16 +8461,19 @@
         <v>263</v>
       </c>
       <c r="F265" s="2" t="s">
-        <v>621</v>
+        <v>263</v>
       </c>
       <c r="G265" s="2" t="s">
         <v>621</v>
       </c>
       <c r="H265" s="2" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="266" spans="1:8" x14ac:dyDescent="0.25">
+        <v>621</v>
+      </c>
+      <c r="I265" s="2" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="266" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A266" s="2" t="s">
         <v>369</v>
       </c>
@@ -8061,138 +8481,141 @@
         <v>369</v>
       </c>
       <c r="C266" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="D266" s="2" t="s">
         <v>264</v>
-      </c>
-      <c r="D266" s="2" t="s">
-        <v>369</v>
       </c>
       <c r="E266" s="2" t="s">
         <v>369</v>
       </c>
       <c r="F266" s="2" t="s">
-        <v>622</v>
+        <v>369</v>
       </c>
       <c r="G266" s="2" t="s">
         <v>622</v>
       </c>
       <c r="H266" s="2" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="267" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C267" s="2" t="s">
+        <v>622</v>
+      </c>
+      <c r="I266" s="2" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="267" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="D267" s="2" t="s">
         <v>265</v>
       </c>
-      <c r="G267" s="3" t="s">
+      <c r="H267" s="3" t="s">
         <v>749</v>
       </c>
-      <c r="H267" s="3" t="s">
+      <c r="I267" s="3" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="268" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C268" s="2" t="s">
+    <row r="268" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="D268" s="2" t="s">
         <v>266</v>
       </c>
-      <c r="D268" s="2" t="s">
+      <c r="E268" s="2" t="s">
         <v>357</v>
       </c>
-      <c r="G268" s="3" t="s">
+      <c r="H268" s="3" t="s">
         <v>750</v>
       </c>
-      <c r="H268" s="3" t="s">
+      <c r="I268" s="3" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="269" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B269" s="2" t="s">
+    <row r="269" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C269" s="2" t="s">
         <v>401</v>
       </c>
-      <c r="C269" s="2" t="s">
+      <c r="D269" s="2" t="s">
         <v>267</v>
       </c>
-      <c r="D269" s="2" t="s">
+      <c r="E269" s="2" t="s">
         <v>358</v>
-      </c>
-      <c r="F269" s="2" t="s">
-        <v>624</v>
       </c>
       <c r="G269" s="2" t="s">
         <v>624</v>
       </c>
       <c r="H269" s="2" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="270" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B270" s="2" t="s">
+        <v>624</v>
+      </c>
+      <c r="I269" s="2" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="270" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C270" s="2" t="s">
         <v>404</v>
       </c>
-      <c r="C270" s="2" t="s">
+      <c r="D270" s="2" t="s">
         <v>268</v>
       </c>
-      <c r="D270" s="2" t="s">
+      <c r="E270" s="2" t="s">
         <v>359</v>
-      </c>
-      <c r="F270" s="2" t="s">
-        <v>625</v>
       </c>
       <c r="G270" s="2" t="s">
         <v>625</v>
       </c>
       <c r="H270" s="2" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="271" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B271" s="2" t="s">
+        <v>625</v>
+      </c>
+      <c r="I270" s="2" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="271" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C271" s="2" t="s">
         <v>406</v>
-      </c>
-      <c r="F271" s="2" t="s">
-        <v>623</v>
       </c>
       <c r="G271" s="2" t="s">
         <v>623</v>
       </c>
       <c r="H271" s="2" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="272" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D272" s="2" t="s">
+        <v>623</v>
+      </c>
+      <c r="I271" s="2" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="272" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E272" s="2" t="s">
         <v>360</v>
-      </c>
-      <c r="F272" s="2" t="s">
-        <v>626</v>
       </c>
       <c r="G272" s="2" t="s">
         <v>626</v>
       </c>
       <c r="H272" s="2" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="273" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B273" s="2" t="s">
+        <v>626</v>
+      </c>
+      <c r="I272" s="2" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="273" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C273" s="2" t="s">
         <v>418</v>
       </c>
-      <c r="C273" s="2" t="s">
+      <c r="D273" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="D273" s="2" t="s">
+      <c r="E273" s="2" t="s">
         <v>361</v>
-      </c>
-      <c r="F273" s="2" t="s">
-        <v>627</v>
       </c>
       <c r="G273" s="2" t="s">
         <v>627</v>
       </c>
       <c r="H273" s="2" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="274" spans="1:8" x14ac:dyDescent="0.25">
+        <v>627</v>
+      </c>
+      <c r="I273" s="2" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="274" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A274" s="2" t="s">
         <v>270</v>
       </c>
@@ -8209,27 +8632,30 @@
         <v>270</v>
       </c>
       <c r="F274" s="2" t="s">
-        <v>16</v>
+        <v>270</v>
       </c>
       <c r="G274" s="2" t="s">
         <v>16</v>
       </c>
       <c r="H274" s="2" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="275" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D275" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I274" s="2" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="275" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E275" s="2" t="s">
         <v>370</v>
       </c>
-      <c r="G275" s="3" t="s">
+      <c r="H275" s="3" t="s">
         <v>751</v>
       </c>
-      <c r="H275" s="3" t="s">
+      <c r="I275" s="3" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="276" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A276" s="2" t="s">
         <v>271</v>
       </c>
@@ -8246,61 +8672,67 @@
         <v>271</v>
       </c>
       <c r="F276" s="2" t="s">
-        <v>628</v>
+        <v>271</v>
       </c>
       <c r="G276" s="2" t="s">
         <v>628</v>
       </c>
       <c r="H276" s="2" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="277" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C277" s="2" t="s">
+        <v>628</v>
+      </c>
+      <c r="I276" s="2" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="277" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="D277" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="G277" s="3" t="s">
+      <c r="H277" s="3" t="s">
         <v>752</v>
       </c>
-      <c r="H277" s="3" t="s">
+      <c r="I277" s="3" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="278" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C278" s="2" t="s">
+    <row r="278" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="D278" s="2" t="s">
         <v>273</v>
       </c>
-      <c r="G278" s="3" t="s">
+      <c r="H278" s="3" t="s">
         <v>753</v>
       </c>
-      <c r="H278" s="3" t="s">
+      <c r="I278" s="3" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="279" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A279" s="2" t="s">
         <v>770</v>
       </c>
       <c r="B279" s="2" t="s">
+        <v>770</v>
+      </c>
+      <c r="C279" s="2" t="s">
         <v>334</v>
       </c>
-      <c r="C279" s="2" t="s">
+      <c r="D279" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="D279" s="2" t="s">
+      <c r="E279" s="2" t="s">
         <v>334</v>
-      </c>
-      <c r="F279" s="2" t="s">
-        <v>629</v>
       </c>
       <c r="G279" s="2" t="s">
         <v>629</v>
       </c>
       <c r="H279" s="2" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="280" spans="1:8" x14ac:dyDescent="0.25">
+        <v>629</v>
+      </c>
+      <c r="I279" s="2" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="280" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A280" s="2" t="s">
         <v>275</v>
       </c>
@@ -8317,16 +8749,19 @@
         <v>275</v>
       </c>
       <c r="F280" s="2" t="s">
-        <v>630</v>
+        <v>275</v>
       </c>
       <c r="G280" s="2" t="s">
         <v>630</v>
       </c>
       <c r="H280" s="2" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="281" spans="1:8" x14ac:dyDescent="0.25">
+        <v>630</v>
+      </c>
+      <c r="I280" s="2" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="281" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A281" s="2" t="s">
         <v>276</v>
       </c>
@@ -8343,16 +8778,19 @@
         <v>276</v>
       </c>
       <c r="F281" s="2" t="s">
-        <v>631</v>
+        <v>276</v>
       </c>
       <c r="G281" s="2" t="s">
         <v>631</v>
       </c>
       <c r="H281" s="2" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="282" spans="1:8" x14ac:dyDescent="0.25">
+        <v>631</v>
+      </c>
+      <c r="I281" s="2" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="282" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A282" s="2" t="s">
         <v>371</v>
       </c>
@@ -8360,25 +8798,28 @@
         <v>371</v>
       </c>
       <c r="C282" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="D282" s="2" t="s">
         <v>277</v>
-      </c>
-      <c r="D282" s="2" t="s">
-        <v>371</v>
       </c>
       <c r="E282" s="2" t="s">
         <v>371</v>
       </c>
       <c r="F282" s="2" t="s">
-        <v>632</v>
+        <v>371</v>
       </c>
       <c r="G282" s="2" t="s">
         <v>632</v>
       </c>
       <c r="H282" s="2" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="283" spans="1:8" x14ac:dyDescent="0.25">
+        <v>632</v>
+      </c>
+      <c r="I282" s="2" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="283" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A283" s="2" t="s">
         <v>278</v>
       </c>
@@ -8395,42 +8836,48 @@
         <v>278</v>
       </c>
       <c r="F283" s="2" t="s">
-        <v>633</v>
+        <v>278</v>
       </c>
       <c r="G283" s="2" t="s">
         <v>633</v>
       </c>
       <c r="H283" s="2" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="284" spans="1:8" x14ac:dyDescent="0.25">
+        <v>633</v>
+      </c>
+      <c r="I283" s="2" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="284" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A284" s="2" t="s">
         <v>376</v>
       </c>
       <c r="B284" s="2" t="s">
-        <v>279</v>
+        <v>376</v>
       </c>
       <c r="C284" s="2" t="s">
         <v>279</v>
       </c>
       <c r="D284" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="E284" s="2" t="s">
         <v>376</v>
       </c>
-      <c r="E284" s="2" t="s">
+      <c r="F284" s="2" t="s">
         <v>279</v>
-      </c>
-      <c r="F284" s="2" t="s">
-        <v>634</v>
       </c>
       <c r="G284" s="2" t="s">
         <v>634</v>
       </c>
       <c r="H284" s="2" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="285" spans="1:8" x14ac:dyDescent="0.25">
+        <v>634</v>
+      </c>
+      <c r="I284" s="2" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="285" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A285" s="2" t="s">
         <v>280</v>
       </c>
@@ -8447,16 +8894,19 @@
         <v>280</v>
       </c>
       <c r="F285" s="2" t="s">
-        <v>635</v>
+        <v>280</v>
       </c>
       <c r="G285" s="2" t="s">
         <v>635</v>
       </c>
       <c r="H285" s="2" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="286" spans="1:8" x14ac:dyDescent="0.25">
+        <v>635</v>
+      </c>
+      <c r="I285" s="2" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="286" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A286" s="2" t="s">
         <v>281</v>
       </c>
@@ -8473,53 +8923,56 @@
         <v>281</v>
       </c>
       <c r="F286" s="2" t="s">
-        <v>636</v>
+        <v>281</v>
       </c>
       <c r="G286" s="2" t="s">
         <v>636</v>
       </c>
       <c r="H286" s="2" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="287" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C287" s="2" t="s">
+        <v>636</v>
+      </c>
+      <c r="I286" s="2" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="287" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="D287" s="2" t="s">
         <v>282</v>
       </c>
-      <c r="D287" s="2" t="s">
+      <c r="E287" s="2" t="s">
         <v>372</v>
-      </c>
-      <c r="F287" s="2" t="s">
-        <v>637</v>
       </c>
       <c r="G287" s="2" t="s">
         <v>637</v>
       </c>
       <c r="H287" s="2" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="288" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B288" s="2" t="s">
-        <v>283</v>
-      </c>
+        <v>637</v>
+      </c>
+      <c r="I287" s="2" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="288" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C288" s="2" t="s">
         <v>283</v>
       </c>
       <c r="D288" s="2" t="s">
         <v>283</v>
       </c>
-      <c r="F288" s="2" t="s">
-        <v>638</v>
+      <c r="E288" s="2" t="s">
+        <v>283</v>
       </c>
       <c r="G288" s="2" t="s">
         <v>638</v>
       </c>
       <c r="H288" s="2" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="289" spans="1:8" x14ac:dyDescent="0.25">
+        <v>638</v>
+      </c>
+      <c r="I288" s="2" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="289" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A289" s="2" t="s">
         <v>373</v>
       </c>
@@ -8527,72 +8980,75 @@
         <v>373</v>
       </c>
       <c r="C289" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="D289" s="2" t="s">
         <v>284</v>
-      </c>
-      <c r="D289" s="2" t="s">
-        <v>373</v>
       </c>
       <c r="E289" s="2" t="s">
         <v>373</v>
       </c>
       <c r="F289" s="2" t="s">
-        <v>639</v>
+        <v>373</v>
       </c>
       <c r="G289" s="2" t="s">
         <v>639</v>
       </c>
       <c r="H289" s="2" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="290" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C290" s="2" t="s">
+        <v>639</v>
+      </c>
+      <c r="I289" s="2" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="290" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="D290" s="2" t="s">
         <v>285</v>
       </c>
-      <c r="D290" s="2" t="s">
+      <c r="E290" s="2" t="s">
         <v>357</v>
       </c>
-      <c r="G290" s="3" t="s">
+      <c r="H290" s="3" t="s">
         <v>754</v>
       </c>
-      <c r="H290" s="3" t="s">
+      <c r="I290" s="3" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="291" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C291" s="2" t="s">
+    <row r="291" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="D291" s="2" t="s">
         <v>286</v>
       </c>
-      <c r="G291" s="3" t="s">
+      <c r="H291" s="3" t="s">
         <v>755</v>
       </c>
-      <c r="H291" s="3" t="s">
+      <c r="I291" s="3" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="292" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C292" s="2" t="s">
+    <row r="292" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="D292" s="2" t="s">
         <v>287</v>
       </c>
-      <c r="G292" s="3" t="s">
+      <c r="H292" s="3" t="s">
         <v>756</v>
       </c>
-      <c r="H292" s="3" t="s">
+      <c r="I292" s="3" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="293" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C293" s="2" t="s">
+    <row r="293" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="D293" s="2" t="s">
         <v>288</v>
       </c>
-      <c r="G293" s="3" t="s">
+      <c r="H293" s="3" t="s">
         <v>757</v>
       </c>
-      <c r="H293" s="3" t="s">
+      <c r="I293" s="3" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="294" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A294" s="2" t="s">
         <v>289</v>
       </c>
@@ -8609,21 +9065,24 @@
         <v>289</v>
       </c>
       <c r="F294" s="2" t="s">
-        <v>640</v>
+        <v>289</v>
       </c>
       <c r="G294" s="2" t="s">
         <v>640</v>
       </c>
       <c r="H294" s="2" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="295" spans="1:8" x14ac:dyDescent="0.25">
+        <v>640</v>
+      </c>
+      <c r="I294" s="2" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="295" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A295" s="2" t="s">
         <v>769</v>
       </c>
       <c r="B295" s="2" t="s">
-        <v>290</v>
+        <v>769</v>
       </c>
       <c r="C295" s="2" t="s">
         <v>290</v>
@@ -8635,16 +9094,19 @@
         <v>290</v>
       </c>
       <c r="F295" s="2" t="s">
-        <v>641</v>
+        <v>290</v>
       </c>
       <c r="G295" s="2" t="s">
         <v>641</v>
       </c>
       <c r="H295" s="2" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="296" spans="1:8" x14ac:dyDescent="0.25">
+        <v>641</v>
+      </c>
+      <c r="I295" s="2" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="296" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A296" s="2" t="s">
         <v>291</v>
       </c>
@@ -8661,50 +9123,53 @@
         <v>291</v>
       </c>
       <c r="F296" s="2" t="s">
-        <v>642</v>
+        <v>291</v>
       </c>
       <c r="G296" s="2" t="s">
         <v>642</v>
       </c>
       <c r="H296" s="2" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="297" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B297" s="2" t="s">
+        <v>642</v>
+      </c>
+      <c r="I296" s="2" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="297" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C297" s="2" t="s">
         <v>415</v>
-      </c>
-      <c r="F297" s="2" t="s">
-        <v>643</v>
       </c>
       <c r="G297" s="2" t="s">
         <v>643</v>
       </c>
       <c r="H297" s="2" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="298" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B298" s="2" t="s">
-        <v>292</v>
-      </c>
+        <v>643</v>
+      </c>
+      <c r="I297" s="2" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="298" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C298" s="2" t="s">
         <v>292</v>
       </c>
       <c r="D298" s="2" t="s">
         <v>292</v>
       </c>
-      <c r="F298" s="2" t="s">
-        <v>644</v>
+      <c r="E298" s="2" t="s">
+        <v>292</v>
       </c>
       <c r="G298" s="2" t="s">
         <v>644</v>
       </c>
       <c r="H298" s="2" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="299" spans="1:8" x14ac:dyDescent="0.25">
+        <v>644</v>
+      </c>
+      <c r="I298" s="2" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="299" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A299" s="2" t="s">
         <v>293</v>
       </c>
@@ -8717,17 +9182,20 @@
       <c r="D299" s="2" t="s">
         <v>293</v>
       </c>
-      <c r="F299" s="2" t="s">
-        <v>645</v>
+      <c r="E299" s="2" t="s">
+        <v>293</v>
       </c>
       <c r="G299" s="2" t="s">
         <v>645</v>
       </c>
       <c r="H299" s="2" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="300" spans="1:8" x14ac:dyDescent="0.25">
+        <v>645</v>
+      </c>
+      <c r="I299" s="2" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="300" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A300" s="2" t="s">
         <v>294</v>
       </c>
@@ -8744,16 +9212,19 @@
         <v>294</v>
       </c>
       <c r="F300" s="2" t="s">
-        <v>646</v>
+        <v>294</v>
       </c>
       <c r="G300" s="2" t="s">
         <v>646</v>
       </c>
       <c r="H300" s="2" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="301" spans="1:8" x14ac:dyDescent="0.25">
+        <v>646</v>
+      </c>
+      <c r="I300" s="2" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="301" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A301" s="2" t="s">
         <v>374</v>
       </c>
@@ -8761,25 +9232,28 @@
         <v>374</v>
       </c>
       <c r="C301" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="D301" s="2" t="s">
         <v>295</v>
-      </c>
-      <c r="D301" s="2" t="s">
-        <v>374</v>
       </c>
       <c r="E301" s="2" t="s">
         <v>374</v>
       </c>
       <c r="F301" s="2" t="s">
-        <v>647</v>
+        <v>374</v>
       </c>
       <c r="G301" s="2" t="s">
         <v>647</v>
       </c>
       <c r="H301" s="2" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="302" spans="1:8" x14ac:dyDescent="0.25">
+        <v>647</v>
+      </c>
+      <c r="I301" s="2" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="302" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A302" s="2" t="s">
         <v>395</v>
       </c>
@@ -8787,25 +9261,28 @@
         <v>395</v>
       </c>
       <c r="C302" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="D302" s="2" t="s">
         <v>296</v>
       </c>
-      <c r="D302" s="2" t="s">
+      <c r="E302" s="2" t="s">
         <v>375</v>
       </c>
-      <c r="E302" s="2" t="s">
+      <c r="F302" s="2" t="s">
         <v>395</v>
-      </c>
-      <c r="F302" s="2" t="s">
-        <v>648</v>
       </c>
       <c r="G302" s="2" t="s">
         <v>648</v>
       </c>
       <c r="H302" s="2" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="303" spans="1:8" x14ac:dyDescent="0.25">
+        <v>648</v>
+      </c>
+      <c r="I302" s="2" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="303" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A303" s="2" t="s">
         <v>297</v>
       </c>
@@ -8822,16 +9299,19 @@
         <v>297</v>
       </c>
       <c r="F303" s="2" t="s">
-        <v>649</v>
+        <v>297</v>
       </c>
       <c r="G303" s="2" t="s">
         <v>649</v>
       </c>
       <c r="H303" s="2" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="304" spans="1:8" x14ac:dyDescent="0.25">
+        <v>649</v>
+      </c>
+      <c r="I303" s="2" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="304" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A304" s="2" t="s">
         <v>417</v>
       </c>
@@ -8839,42 +9319,48 @@
         <v>417</v>
       </c>
       <c r="C304" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="D304" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D304" s="2" t="s">
+      <c r="E304" s="2" t="s">
         <v>377</v>
       </c>
-      <c r="E304" s="2" t="s">
+      <c r="F304" s="2" t="s">
         <v>417</v>
-      </c>
-      <c r="F304" s="2" t="s">
-        <v>4</v>
       </c>
       <c r="G304" s="2" t="s">
         <v>4</v>
       </c>
       <c r="H304" s="2" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="305" spans="1:8" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+      <c r="I304" s="2" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="305" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A305" s="2" t="s">
         <v>672</v>
       </c>
-      <c r="D305" s="2" t="s">
+      <c r="B305" s="2" t="s">
+        <v>672</v>
+      </c>
+      <c r="E305" s="2" t="s">
         <v>379</v>
-      </c>
-      <c r="F305" s="2" t="s">
-        <v>767</v>
       </c>
       <c r="G305" s="2" t="s">
         <v>767</v>
       </c>
       <c r="H305" s="2" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="306" spans="1:8" x14ac:dyDescent="0.25">
+        <v>767</v>
+      </c>
+      <c r="I305" s="2" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="306" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A306" s="2" t="s">
         <v>298</v>
       </c>
@@ -8891,204 +9377,219 @@
         <v>298</v>
       </c>
       <c r="F306" s="2" t="s">
-        <v>650</v>
+        <v>298</v>
       </c>
       <c r="G306" s="2" t="s">
         <v>650</v>
       </c>
       <c r="H306" s="2" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="307" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B307" s="2" t="s">
+        <v>650</v>
+      </c>
+      <c r="I306" s="2" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="307" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C307" s="2" t="s">
         <v>380</v>
       </c>
-      <c r="C307" s="2" t="s">
+      <c r="D307" s="2" t="s">
         <v>299</v>
       </c>
-      <c r="D307" s="2" t="s">
+      <c r="E307" s="2" t="s">
         <v>380</v>
-      </c>
-      <c r="F307" s="2" t="s">
-        <v>651</v>
       </c>
       <c r="G307" s="2" t="s">
         <v>651</v>
       </c>
       <c r="H307" s="2" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="308" spans="1:8" x14ac:dyDescent="0.25">
+        <v>651</v>
+      </c>
+      <c r="I307" s="2" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="308" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A308" s="2" t="s">
         <v>663</v>
       </c>
       <c r="B308" s="2" t="s">
+        <v>663</v>
+      </c>
+      <c r="C308" s="2" t="s">
         <v>419</v>
       </c>
-      <c r="C308" s="2" t="s">
+      <c r="D308" s="2" t="s">
         <v>300</v>
       </c>
-      <c r="D308" s="2" t="s">
+      <c r="E308" s="2" t="s">
         <v>381</v>
       </c>
-      <c r="E308" s="2" t="s">
+      <c r="F308" s="2" t="s">
         <v>419</v>
-      </c>
-      <c r="F308" s="2" t="s">
-        <v>652</v>
       </c>
       <c r="G308" s="2" t="s">
         <v>652</v>
       </c>
       <c r="H308" s="2" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="309" spans="1:8" x14ac:dyDescent="0.25">
+        <v>652</v>
+      </c>
+      <c r="I308" s="2" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="309" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A309" s="2" t="s">
         <v>382</v>
       </c>
       <c r="B309" s="2" t="s">
-        <v>301</v>
+        <v>382</v>
       </c>
       <c r="C309" s="2" t="s">
         <v>301</v>
       </c>
       <c r="D309" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="E309" s="2" t="s">
         <v>382</v>
       </c>
-      <c r="E309" s="2" t="s">
+      <c r="F309" s="2" t="s">
         <v>301</v>
-      </c>
-      <c r="F309" s="2" t="s">
-        <v>653</v>
       </c>
       <c r="G309" s="2" t="s">
         <v>653</v>
       </c>
       <c r="H309" s="2" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="310" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B310" s="2" t="s">
+        <v>653</v>
+      </c>
+      <c r="I309" s="2" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="310" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C310" s="2" t="s">
         <v>420</v>
       </c>
-      <c r="C310" s="2" t="s">
+      <c r="D310" s="2" t="s">
         <v>302</v>
       </c>
-      <c r="D310" s="2" t="s">
+      <c r="E310" s="2" t="s">
         <v>378</v>
-      </c>
-      <c r="F310" s="2" t="s">
-        <v>654</v>
       </c>
       <c r="G310" s="2" t="s">
         <v>654</v>
       </c>
       <c r="H310" s="2" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="311" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D311" s="2" t="s">
+        <v>654</v>
+      </c>
+      <c r="I310" s="2" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="311" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E311" s="2" t="s">
         <v>383</v>
-      </c>
-      <c r="F311" s="2" t="s">
-        <v>655</v>
       </c>
       <c r="G311" s="2" t="s">
         <v>655</v>
       </c>
       <c r="H311" s="2" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="312" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C312" s="2" t="s">
+        <v>655</v>
+      </c>
+      <c r="I311" s="2" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="312" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="D312" s="2" t="s">
         <v>303</v>
       </c>
-      <c r="D312" s="2" t="s">
+      <c r="E312" s="2" t="s">
         <v>384</v>
-      </c>
-      <c r="F312" s="2" t="s">
-        <v>656</v>
       </c>
       <c r="G312" s="2" t="s">
         <v>656</v>
       </c>
       <c r="H312" s="2" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="313" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C313" s="2" t="s">
+        <v>656</v>
+      </c>
+      <c r="I312" s="2" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="313" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="D313" s="2" t="s">
         <v>304</v>
       </c>
-      <c r="G313" s="3" t="s">
+      <c r="H313" s="3" t="s">
         <v>758</v>
       </c>
-      <c r="H313" s="3" t="s">
+      <c r="I313" s="3" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="314" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C314" s="2" t="s">
+    <row r="314" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="D314" s="2" t="s">
         <v>305</v>
       </c>
-      <c r="G314" s="3" t="s">
+      <c r="H314" s="3" t="s">
         <v>759</v>
       </c>
-      <c r="H314" s="3" t="s">
+      <c r="I314" s="3" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="315" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A315" s="2" t="s">
         <v>306</v>
       </c>
       <c r="B315" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="C315" s="2" t="s">
         <v>421</v>
-      </c>
-      <c r="C315" s="2" t="s">
-        <v>306</v>
       </c>
       <c r="D315" s="2" t="s">
         <v>306</v>
       </c>
       <c r="E315" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="F315" s="2" t="s">
         <v>421</v>
-      </c>
-      <c r="F315" s="2" t="s">
-        <v>657</v>
       </c>
       <c r="G315" s="2" t="s">
         <v>657</v>
       </c>
       <c r="H315" s="2" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="316" spans="1:8" x14ac:dyDescent="0.25">
+        <v>657</v>
+      </c>
+      <c r="I315" s="2" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="316" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A316" s="2" t="s">
         <v>673</v>
       </c>
-      <c r="D316" s="2" t="s">
+      <c r="B316" s="2" t="s">
+        <v>673</v>
+      </c>
+      <c r="E316" s="2" t="s">
         <v>385</v>
-      </c>
-      <c r="F316" s="2" t="s">
-        <v>768</v>
       </c>
       <c r="G316" s="2" t="s">
         <v>768</v>
       </c>
       <c r="H316" s="2" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="317" spans="1:8" x14ac:dyDescent="0.25">
+        <v>768</v>
+      </c>
+      <c r="I316" s="2" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="317" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A317" s="2" t="s">
         <v>307</v>
       </c>
@@ -9105,16 +9606,19 @@
         <v>307</v>
       </c>
       <c r="F317" s="2" t="s">
-        <v>658</v>
+        <v>307</v>
       </c>
       <c r="G317" s="2" t="s">
         <v>658</v>
       </c>
       <c r="H317" s="2" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="318" spans="1:8" x14ac:dyDescent="0.25">
+        <v>658</v>
+      </c>
+      <c r="I317" s="2" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="318" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A318" s="2" t="s">
         <v>308</v>
       </c>
@@ -9131,89 +9635,113 @@
         <v>308</v>
       </c>
       <c r="F318" s="2" t="s">
-        <v>659</v>
+        <v>308</v>
       </c>
       <c r="G318" s="2" t="s">
         <v>659</v>
       </c>
       <c r="H318" s="2" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="319" spans="1:8" x14ac:dyDescent="0.25">
+        <v>659</v>
+      </c>
+      <c r="I318" s="2" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="319" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A319" s="2" t="s">
         <v>666</v>
       </c>
-      <c r="G319" s="3" t="s">
+      <c r="B319" s="2" t="s">
+        <v>666</v>
+      </c>
+      <c r="H319" s="3" t="s">
         <v>760</v>
       </c>
-      <c r="H319" s="3" t="s">
+      <c r="I319" s="3" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="320" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A320" s="2" t="s">
         <v>665</v>
       </c>
-      <c r="G320" s="3" t="s">
+      <c r="B320" s="2" t="s">
+        <v>665</v>
+      </c>
+      <c r="H320" s="3" t="s">
         <v>766</v>
       </c>
-      <c r="H320" s="3" t="s">
+      <c r="I320" s="3" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="321" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A321" s="2" t="s">
         <v>664</v>
       </c>
-      <c r="G321" s="3" t="s">
+      <c r="B321" s="2" t="s">
+        <v>664</v>
+      </c>
+      <c r="H321" s="3" t="s">
         <v>761</v>
       </c>
-      <c r="H321" s="3" t="s">
+      <c r="I321" s="3" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="322" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A322" s="2" t="s">
         <v>433</v>
       </c>
-      <c r="G322" s="3" t="s">
+      <c r="B322" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="H322" s="3" t="s">
         <v>762</v>
       </c>
-      <c r="H322" s="3" t="s">
+      <c r="I322" s="3" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="323" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A323" s="2" t="s">
         <v>434</v>
       </c>
-      <c r="G323" s="3" t="s">
+      <c r="B323" s="2" t="s">
+        <v>434</v>
+      </c>
+      <c r="H323" s="3" t="s">
         <v>763</v>
       </c>
-      <c r="H323" s="3" t="s">
+      <c r="I323" s="3" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="324" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A324" s="2" t="s">
         <v>660</v>
       </c>
-      <c r="G324" s="3" t="s">
+      <c r="B324" s="2" t="s">
+        <v>660</v>
+      </c>
+      <c r="H324" s="3" t="s">
         <v>764</v>
       </c>
-      <c r="H324" s="3" t="s">
+      <c r="I324" s="3" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="325" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A325" s="2" t="s">
         <v>661</v>
       </c>
-      <c r="G325" s="3" t="s">
+      <c r="B325" s="2" t="s">
+        <v>661</v>
+      </c>
+      <c r="H325" s="3" t="s">
         <v>765</v>
       </c>
-      <c r="H325" s="3" t="s">
+      <c r="I325" s="3" t="s">
         <v>422</v>
       </c>
     </row>
@@ -9231,12 +9759,12 @@
       <selection activeCell="BJ5" sqref="BJ5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -9424,7 +9952,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="4" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -9612,7 +10140,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>16</v>
       </c>
@@ -9800,7 +10328,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -9988,7 +10516,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -10176,7 +10704,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>13</v>
       </c>
